--- a/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\EAO\EAO_SHARED\DIGITAL SERVICES\00 - EPIC.system\01 - EPIC.track\20 - Event Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\amendment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC953D8-6976-4C2C-AD35-36C77638E6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A6F8C-567D-4227-9095-315B48FE754A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="16680" activeTab="1" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="251">
   <si>
     <t>No</t>
   </si>
@@ -414,9 +414,6 @@
     <t>#FFFFFF</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
@@ -888,7 +885,88 @@
     <t>Set "Amendment Application Review (Complex) | Start of Amendment Application Review (Complex) (Date Capture)" to thisEvent ACTUAL +1</t>
   </si>
   <si>
-    <t>Set workState to COMPLETE</t>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>HIDDEN</t>
+  </si>
+  <si>
+    <t>MANDATORY</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>{"work_state": "WITHDRAWN"}</t>
+  </si>
+  <si>
+    <t>{"work_state": "TERMINATED"}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Amendment Application", "start_at": 28 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "\"Draft\" Amendment Application Initial Review", "start_at": 38 }</t>
+  </si>
+  <si>
+    <t>{"start_date_locked": true}</t>
+  </si>
+  <si>
+    <t>{"position_id": 8}</t>
+  </si>
+  <si>
+    <t>{"position_id": 2}</t>
+  </si>
+  <si>
+    <t>{"position_id": 1}</t>
+  </si>
+  <si>
+    <t>{"work_state": "COMPLETED"}</t>
+  </si>
+  <si>
+    <t>Set workState to COMPLETED</t>
+  </si>
+  <si>
+    <t>{"all_future_phases":false}</t>
+  </si>
+  <si>
+    <t>{"all_future_events":false}</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Amendment Application Review (Typical)","work_type_id":7,"ea_act_id":3,"is_active":false}]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Review (Simple)","work_type_id": 7, "ea_act_id": 3, "new_name": "Amendment Application Review (Simple)", "legislated": false }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Review (Simple)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Simple) (Date Capture)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Review (Typical)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Typical) (Date Capture)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Review (Complex)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Complex) (Date Capture)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>Amendment</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Development (Proponent Time) (Date Capture Milestone)", "start_at": 1}</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Submission","work_type_id": 7, "ea_act_id": 3, "event_name": "Amendment Application Received", "start_at": 1}</t>
+  </si>
+  <si>
+    <t>AddPhase</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Amendment Application Review (Complex)","work_type_id":7,"ea_act_id":3, "new_name": "Amendment Application Review (Complex)", "legislated": false}</t>
+  </si>
+  <si>
+    <t>{"work_type":15}</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,40 +1167,28 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1545,13 +1611,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8789B1A8-4095-496B-ABDA-23EBF7B52DFC}">
-  <dimension ref="A1:H225"/>
+  <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,12 +1626,12 @@
     <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
     <col min="4" max="5" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="8" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,18 +1654,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1613,19 +1682,22 @@
       <c r="G2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1639,19 +1711,22 @@
       <c r="G3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1665,19 +1740,22 @@
       <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1691,19 +1769,22 @@
       <c r="G5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1717,19 +1798,22 @@
       <c r="G6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1743,19 +1827,22 @@
       <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -1769,19 +1856,22 @@
       <c r="G8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
@@ -1795,7 +1885,10 @@
       <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" s="3">
         <v>8</v>
       </c>
     </row>
@@ -2433,13 +2526,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E014DF34-0612-424C-AA89-DB5D1D4ABE25}">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,12 +2540,11 @@
     <col min="1" max="1" width="6.77734375" style="3" customWidth="1"/>
     <col min="2" max="3" width="10.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="70.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.77734375" style="2" customWidth="1"/>
     <col min="7" max="9" width="14.77734375" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.77734375" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.77734375" style="2" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -2480,10 +2572,10 @@
         <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>30</v>
@@ -2492,7 +2584,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -2502,24 +2594,24 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="24">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>116</v>
+      <c r="D2" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="7" t="b">
         <v>0</v>
@@ -2530,8 +2622,8 @@
       <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="8" t="b">
-        <v>1</v>
+      <c r="L2" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -2544,21 +2636,21 @@
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>117</v>
+      <c r="D3" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="7" t="b">
         <v>0</v>
@@ -2569,8 +2661,8 @@
       <c r="K3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="b">
-        <v>1</v>
+      <c r="L3" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -2583,21 +2675,21 @@
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>119</v>
+      <c r="D4" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E4" s="6" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" s="7" t="b">
         <v>0</v>
@@ -2608,8 +2700,8 @@
       <c r="K4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="8" t="b">
-        <v>0</v>
+      <c r="L4" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2622,21 +2714,21 @@
       <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>120</v>
+      <c r="D5" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="E5" s="6" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="7" t="b">
         <v>0</v>
@@ -2647,8 +2739,8 @@
       <c r="K5" s="3">
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="b">
-        <v>0</v>
+      <c r="L5" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -2661,7 +2753,7 @@
       <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="6" t="str">
@@ -2675,7 +2767,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="7" t="b">
         <v>0</v>
@@ -2686,8 +2778,8 @@
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
+      <c r="L6" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -2697,24 +2789,24 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>118</v>
+      <c r="D7" s="18" t="s">
+        <v>117</v>
       </c>
       <c r="E7" s="6" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" s="7" t="b">
         <v>0</v>
@@ -2725,8 +2817,8 @@
       <c r="K7" s="3">
         <v>0</v>
       </c>
-      <c r="L7" s="8" t="b">
-        <v>1</v>
+      <c r="L7" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2736,24 +2828,24 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>121</v>
+      <c r="D8" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7" t="b">
         <v>0</v>
@@ -2764,8 +2856,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="8" t="b">
-        <v>1</v>
+      <c r="L8" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2778,21 +2870,21 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>119</v>
+      <c r="D9" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="7" t="b">
         <v>0</v>
@@ -2803,8 +2895,8 @@
       <c r="K9" s="3">
         <v>0</v>
       </c>
-      <c r="L9" s="8" t="b">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2817,21 +2909,21 @@
       <c r="C10" s="8">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>123</v>
+      <c r="D10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E10" s="6" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I10" s="7" t="b">
         <v>0</v>
@@ -2842,8 +2934,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="8" t="b">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2856,21 +2948,21 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>124</v>
+      <c r="D11" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="7" t="b">
         <v>0</v>
@@ -2881,8 +2973,8 @@
       <c r="K11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="8" t="b">
-        <v>0</v>
+      <c r="L11" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -2895,21 +2987,21 @@
       <c r="C12" s="8">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>125</v>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E12" s="6" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7" t="b">
         <v>0</v>
@@ -2920,8 +3012,8 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="8" t="b">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -2934,21 +3026,21 @@
       <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>126</v>
+      <c r="D13" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7" t="b">
         <v>0</v>
@@ -2959,8 +3051,8 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="8" t="b">
-        <v>0</v>
+      <c r="L13" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -2973,21 +3065,21 @@
       <c r="C14" s="8">
         <v>2</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>127</v>
+      <c r="D14" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E14" s="6" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I14" s="7" t="b">
         <v>0</v>
@@ -2998,8 +3090,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="8" t="b">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -3012,21 +3104,21 @@
       <c r="C15" s="8">
         <v>2</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>128</v>
+      <c r="D15" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E15" s="6" t="str">
         <f>IF((C15=""),"",VLOOKUP(C15,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7" t="b">
         <v>0</v>
@@ -3037,8 +3129,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="8" t="b">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -3054,21 +3146,21 @@
       <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>129</v>
+      <c r="D16" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E16" s="6" t="str">
         <f>IF((C16=""),"",VLOOKUP(C16,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I16" s="7" t="b">
         <v>0</v>
@@ -3079,8 +3171,8 @@
       <c r="K16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="8" t="b">
-        <v>0</v>
+      <c r="L16" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -3096,21 +3188,21 @@
       <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>130</v>
+      <c r="D17" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF((C17=""),"",VLOOKUP(C17,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="7" t="b">
         <v>0</v>
@@ -3121,8 +3213,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="8" t="b">
-        <v>0</v>
+      <c r="L17" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -3135,21 +3227,21 @@
       <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>131</v>
+      <c r="D18" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E18" s="6" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="7" t="b">
         <v>1</v>
@@ -3160,8 +3252,8 @@
       <c r="K18" s="3">
         <v>30</v>
       </c>
-      <c r="L18" s="8" t="b">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -3177,21 +3269,21 @@
       <c r="C19" s="8">
         <v>2</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>132</v>
+      <c r="D19" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E19" s="6" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="7" t="b">
         <v>0</v>
@@ -3202,8 +3294,8 @@
       <c r="K19" s="3">
         <v>0</v>
       </c>
-      <c r="L19" s="8" t="b">
-        <v>0</v>
+      <c r="L19" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -3219,21 +3311,21 @@
       <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>133</v>
+      <c r="D20" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E20" s="6" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I20" s="7" t="b">
         <v>0</v>
@@ -3244,8 +3336,8 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="8" t="b">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -3261,21 +3353,21 @@
       <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>134</v>
+      <c r="D21" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7" t="b">
         <v>0</v>
@@ -3286,8 +3378,8 @@
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="8" t="b">
-        <v>0</v>
+      <c r="L21" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -3303,33 +3395,33 @@
       <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>135</v>
+      <c r="D22" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E22" s="6" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I22" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="8" t="b">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -3342,21 +3434,21 @@
       <c r="C23" s="8">
         <v>2</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>87</v>
+      <c r="D23" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF((C23=""),"",VLOOKUP(C23,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="7" t="b">
         <v>0</v>
@@ -3367,8 +3459,8 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
+      <c r="L23" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -3381,21 +3473,21 @@
       <c r="C24" s="8">
         <v>2</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>88</v>
+      <c r="D24" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E24" s="6" t="str">
         <f>IF((C24=""),"",VLOOKUP(C24,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" s="7" t="b">
         <v>0</v>
@@ -3406,8 +3498,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="8" t="b">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -3420,21 +3512,21 @@
       <c r="C25" s="8">
         <v>2</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>136</v>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E25" s="6" t="str">
         <f>IF((C25=""),"",VLOOKUP(C25,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I25" s="7" t="b">
         <v>0</v>
@@ -3445,8 +3537,8 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="8" t="b">
-        <v>0</v>
+      <c r="L25" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -3462,21 +3554,21 @@
       <c r="C26" s="8">
         <v>2</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>137</v>
+      <c r="D26" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E26" s="6" t="str">
         <f>IF((C26=""),"",VLOOKUP(C26,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I26" s="7" t="b">
         <v>0</v>
@@ -3487,8 +3579,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="8" t="b">
-        <v>0</v>
+      <c r="L26" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -3504,21 +3596,21 @@
       <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>138</v>
+      <c r="D27" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I27" s="7" t="b">
         <v>0</v>
@@ -3529,8 +3621,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="8" t="b">
-        <v>0</v>
+      <c r="L27" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -3543,21 +3635,21 @@
       <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>139</v>
+      <c r="D28" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="E28" s="6" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" s="7" t="b">
         <v>0</v>
@@ -3568,8 +3660,8 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="8" t="b">
-        <v>0</v>
+      <c r="L28" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -3585,21 +3677,21 @@
       <c r="C29" s="8">
         <v>2</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>140</v>
+      <c r="D29" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E29" s="6" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" s="7" t="b">
         <v>0</v>
@@ -3610,8 +3702,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="8" t="b">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3627,21 +3719,21 @@
       <c r="C30" s="8">
         <v>2</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>141</v>
+      <c r="D30" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="E30" s="6" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="7" t="b">
         <v>0</v>
@@ -3652,8 +3744,8 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="8" t="b">
-        <v>0</v>
+      <c r="L30" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M30" s="3">
         <v>29</v>
@@ -3666,21 +3758,21 @@
       <c r="C31" s="8">
         <v>2</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>142</v>
+      <c r="D31" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="E31" s="6" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="7" t="b">
         <v>0</v>
@@ -3691,8 +3783,8 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="8" t="b">
-        <v>0</v>
+      <c r="L31" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M31" s="3">
         <v>30</v>
@@ -3708,21 +3800,21 @@
       <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>143</v>
+      <c r="D32" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E32" s="6" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="7" t="b">
         <v>0</v>
@@ -3733,8 +3825,8 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="8" t="b">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M32" s="3">
         <v>31</v>
@@ -3750,21 +3842,21 @@
       <c r="C33" s="8">
         <v>2</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>144</v>
+      <c r="D33" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="E33" s="6" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="7" t="b">
         <v>0</v>
@@ -3775,8 +3867,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="8" t="b">
-        <v>0</v>
+      <c r="L33" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M33" s="3">
         <v>32</v>
@@ -3789,7 +3881,7 @@
       <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="6" t="str">
@@ -3803,7 +3895,7 @@
         <v>34</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I34" s="7" t="b">
         <v>0</v>
@@ -3814,8 +3906,8 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="8" t="b">
-        <v>0</v>
+      <c r="L34" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M34" s="3">
         <v>33</v>
@@ -3825,24 +3917,24 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="25">
         <v>2</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>122</v>
+      <c r="D35" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="E35" s="6" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35" s="7" t="b">
         <v>0</v>
@@ -3853,8 +3945,8 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="8" t="b">
-        <v>1</v>
+      <c r="L35" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M35" s="3">
         <v>34</v>
@@ -3871,20 +3963,20 @@
         <v>2</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E36" s="6" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I36" s="7" t="b">
         <v>0</v>
@@ -3895,8 +3987,8 @@
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="8" t="b">
-        <v>1</v>
+      <c r="L36" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M36" s="3">
         <v>35</v>
@@ -3913,20 +4005,20 @@
         <v>2</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="6" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" s="7" t="b">
         <v>0</v>
@@ -3937,8 +4029,8 @@
       <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="8" t="b">
-        <v>1</v>
+      <c r="L37" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M37" s="3">
         <v>36</v>
@@ -3948,24 +4040,24 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="24">
         <v>3</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>145</v>
+      <c r="D38" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="E38" s="6" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I38" s="7" t="b">
         <v>0</v>
@@ -3976,8 +4068,8 @@
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="8" t="b">
-        <v>1</v>
+      <c r="L38" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M38" s="3">
         <v>37</v>
@@ -3990,21 +4082,21 @@
       <c r="C39" s="8">
         <v>3</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>146</v>
+      <c r="D39" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E39" s="6" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" s="7" t="b">
         <v>0</v>
@@ -4015,8 +4107,8 @@
       <c r="K39" s="3">
         <v>0</v>
       </c>
-      <c r="L39" s="8" t="b">
-        <v>1</v>
+      <c r="L39" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M39" s="3">
         <v>38</v>
@@ -4029,21 +4121,21 @@
       <c r="C40" s="8">
         <v>3</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>147</v>
+      <c r="D40" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="E40" s="6" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I40" s="7" t="b">
         <v>0</v>
@@ -4054,8 +4146,8 @@
       <c r="K40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="8" t="b">
-        <v>1</v>
+      <c r="L40" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M40" s="3">
         <v>39</v>
@@ -4068,21 +4160,21 @@
       <c r="C41" s="8">
         <v>3</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>148</v>
+      <c r="D41" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="E41" s="6" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I41" s="7" t="b">
         <v>0</v>
@@ -4093,8 +4185,8 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="8" t="b">
-        <v>1</v>
+      <c r="L41" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M41" s="3">
         <v>40</v>
@@ -4107,21 +4199,21 @@
       <c r="C42" s="8">
         <v>3</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>149</v>
+      <c r="D42" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="E42" s="6" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I42" s="7" t="b">
         <v>0</v>
@@ -4132,8 +4224,8 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="8" t="b">
-        <v>1</v>
+      <c r="L42" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M42" s="3">
         <v>41</v>
@@ -4146,21 +4238,21 @@
       <c r="C43" s="8">
         <v>3</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>119</v>
+      <c r="D43" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E43" s="6" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I43" s="7" t="b">
         <v>0</v>
@@ -4171,8 +4263,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="8" t="b">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M43" s="3">
         <v>42</v>
@@ -4185,21 +4277,21 @@
       <c r="C44" s="8">
         <v>3</v>
       </c>
-      <c r="D44" s="16" t="s">
-        <v>128</v>
+      <c r="D44" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E44" s="6" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I44" s="7" t="b">
         <v>0</v>
@@ -4210,8 +4302,8 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="8" t="b">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M44" s="3">
         <v>43</v>
@@ -4227,21 +4319,21 @@
       <c r="C45" s="8">
         <v>3</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>129</v>
+      <c r="D45" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E45" s="6" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I45" s="7" t="b">
         <v>0</v>
@@ -4252,8 +4344,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="8" t="b">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M45" s="3">
         <v>44</v>
@@ -4269,21 +4361,21 @@
       <c r="C46" s="8">
         <v>3</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>130</v>
+      <c r="D46" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E46" s="6" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I46" s="7" t="b">
         <v>0</v>
@@ -4294,8 +4386,8 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="8" t="b">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M46" s="3">
         <v>45</v>
@@ -4308,21 +4400,21 @@
       <c r="C47" s="8">
         <v>3</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>151</v>
+      <c r="D47" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="E47" s="6" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I47" s="7" t="b">
         <v>0</v>
@@ -4333,8 +4425,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="8" t="b">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M47" s="3">
         <v>46</v>
@@ -4350,21 +4442,21 @@
       <c r="C48" s="8">
         <v>3</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>140</v>
+      <c r="D48" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E48" s="6" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I48" s="7" t="b">
         <v>0</v>
@@ -4375,8 +4467,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="8" t="b">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M48" s="3">
         <v>47</v>
@@ -4392,21 +4484,21 @@
       <c r="C49" s="8">
         <v>3</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>152</v>
+      <c r="D49" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E49" s="6" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I49" s="7" t="b">
         <v>0</v>
@@ -4417,8 +4509,8 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="8" t="b">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M49" s="3">
         <v>48</v>
@@ -4431,21 +4523,21 @@
       <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>153</v>
+      <c r="D50" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E50" s="6" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I50" s="7" t="b">
         <v>0</v>
@@ -4456,8 +4548,8 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="b">
-        <v>0</v>
+      <c r="L50" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M50" s="3">
         <v>49</v>
@@ -4473,21 +4565,21 @@
       <c r="C51" s="8">
         <v>3</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>143</v>
+      <c r="D51" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E51" s="6" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I51" s="7" t="b">
         <v>0</v>
@@ -4498,8 +4590,8 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="8" t="b">
-        <v>0</v>
+      <c r="L51" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M51" s="3">
         <v>50</v>
@@ -4515,21 +4607,21 @@
       <c r="C52" s="8">
         <v>3</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>154</v>
+      <c r="D52" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E52" s="6" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I52" s="7" t="b">
         <v>0</v>
@@ -4540,8 +4632,8 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="8" t="b">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M52" s="3">
         <v>51</v>
@@ -4554,7 +4646,7 @@
       <c r="C53" s="8">
         <v>3</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="6" t="str">
@@ -4568,7 +4660,7 @@
         <v>34</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I53" s="7" t="b">
         <v>0</v>
@@ -4579,8 +4671,8 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="8" t="b">
-        <v>0</v>
+      <c r="L53" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M53" s="3">
         <v>52</v>
@@ -4590,24 +4682,24 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="25">
         <v>3</v>
       </c>
-      <c r="D54" s="21" t="s">
-        <v>150</v>
+      <c r="D54" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I54" s="7" t="b">
         <v>0</v>
@@ -4618,8 +4710,8 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="8" t="b">
-        <v>1</v>
+      <c r="L54" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M54" s="3">
         <v>53</v>
@@ -4629,24 +4721,24 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="C55" s="28">
+      <c r="C55" s="24">
         <v>4</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>155</v>
+      <c r="D55" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="E55" s="6" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I55" s="7" t="b">
         <v>0</v>
@@ -4657,8 +4749,8 @@
       <c r="K55" s="3">
         <v>0</v>
       </c>
-      <c r="L55" s="8" t="b">
-        <v>1</v>
+      <c r="L55" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M55" s="3">
         <v>54</v>
@@ -4674,21 +4766,21 @@
       <c r="C56" s="8">
         <v>4</v>
       </c>
-      <c r="D56" s="19" t="s">
-        <v>156</v>
+      <c r="D56" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I56" s="7" t="b">
         <v>0</v>
@@ -4699,8 +4791,8 @@
       <c r="K56" s="3">
         <v>0</v>
       </c>
-      <c r="L56" s="8" t="b">
-        <v>1</v>
+      <c r="L56" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M56" s="3">
         <v>55</v>
@@ -4716,21 +4808,21 @@
       <c r="C57" s="8">
         <v>4</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>157</v>
+      <c r="D57" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I57" s="7" t="b">
         <v>0</v>
@@ -4741,8 +4833,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="8" t="b">
-        <v>1</v>
+      <c r="L57" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M57" s="3">
         <v>56</v>
@@ -4755,21 +4847,21 @@
       <c r="C58" s="8">
         <v>4</v>
       </c>
-      <c r="D58" s="23" t="s">
-        <v>158</v>
+      <c r="D58" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="E58" s="6" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I58" s="7" t="b">
         <v>0</v>
@@ -4780,8 +4872,8 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="8" t="b">
-        <v>1</v>
+      <c r="L58" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M58" s="3">
         <v>57</v>
@@ -4794,21 +4886,21 @@
       <c r="C59" s="8">
         <v>4</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>177</v>
+      <c r="D59" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="E59" s="6" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>37</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I59" s="7" t="b">
         <v>0</v>
@@ -4819,8 +4911,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="8" t="b">
-        <v>1</v>
+      <c r="L59" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M59" s="3">
         <v>58</v>
@@ -4836,21 +4928,21 @@
       <c r="C60" s="8">
         <v>4</v>
       </c>
-      <c r="D60" s="25" t="s">
-        <v>178</v>
+      <c r="D60" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="E60" s="6" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I60" s="7" t="b">
         <v>0</v>
@@ -4861,8 +4953,8 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="8" t="b">
-        <v>1</v>
+      <c r="L60" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M60" s="3">
         <v>59</v>
@@ -4875,21 +4967,21 @@
       <c r="C61" s="8">
         <v>4</v>
       </c>
-      <c r="D61" s="16" t="s">
-        <v>119</v>
+      <c r="D61" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E61" s="6" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I61" s="7" t="b">
         <v>0</v>
@@ -4900,8 +4992,8 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="b">
-        <v>0</v>
+      <c r="L61" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M61" s="3">
         <v>60</v>
@@ -4914,21 +5006,21 @@
       <c r="C62" s="8">
         <v>4</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>160</v>
+      <c r="D62" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E62" s="6" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I62" s="7" t="b">
         <v>0</v>
@@ -4939,8 +5031,8 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="8" t="b">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M62" s="3">
         <v>61</v>
@@ -4953,21 +5045,21 @@
       <c r="C63" s="8">
         <v>4</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>128</v>
+      <c r="D63" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E63" s="6" t="str">
         <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I63" s="7" t="b">
         <v>0</v>
@@ -4978,8 +5070,8 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="8" t="b">
-        <v>0</v>
+      <c r="L63" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M63" s="3">
         <v>62</v>
@@ -4995,21 +5087,21 @@
       <c r="C64" s="8">
         <v>4</v>
       </c>
-      <c r="D64" s="19" t="s">
-        <v>129</v>
+      <c r="D64" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E64" s="6" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I64" s="7" t="b">
         <v>0</v>
@@ -5020,8 +5112,8 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="8" t="b">
-        <v>0</v>
+      <c r="L64" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M64" s="3">
         <v>63</v>
@@ -5037,21 +5129,21 @@
       <c r="C65" s="8">
         <v>4</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>130</v>
+      <c r="D65" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E65" s="6" t="str">
         <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I65" s="7" t="b">
         <v>0</v>
@@ -5062,8 +5154,8 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="8" t="b">
-        <v>0</v>
+      <c r="L65" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M65" s="3">
         <v>64</v>
@@ -5076,21 +5168,21 @@
       <c r="C66" s="8">
         <v>4</v>
       </c>
-      <c r="D66" s="17" t="s">
-        <v>151</v>
+      <c r="D66" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="E66" s="6" t="str">
         <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I66" s="7" t="b">
         <v>0</v>
@@ -5101,8 +5193,8 @@
       <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="8" t="b">
-        <v>0</v>
+      <c r="L66" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M66" s="3">
         <v>65</v>
@@ -5118,21 +5210,21 @@
       <c r="C67" s="8">
         <v>4</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>140</v>
+      <c r="D67" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E67" s="6" t="str">
         <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I67" s="7" t="b">
         <v>0</v>
@@ -5143,8 +5235,8 @@
       <c r="K67" s="3">
         <v>0</v>
       </c>
-      <c r="L67" s="8" t="b">
-        <v>0</v>
+      <c r="L67" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M67" s="3">
         <v>66</v>
@@ -5160,21 +5252,21 @@
       <c r="C68" s="8">
         <v>4</v>
       </c>
-      <c r="D68" s="18" t="s">
-        <v>152</v>
+      <c r="D68" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E68" s="6" t="str">
         <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I68" s="7" t="b">
         <v>0</v>
@@ -5185,8 +5277,8 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="8" t="b">
-        <v>0</v>
+      <c r="L68" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M68" s="3">
         <v>67</v>
@@ -5199,21 +5291,21 @@
       <c r="C69" s="8">
         <v>4</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>153</v>
+      <c r="D69" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E69" s="6" t="str">
         <f>IF((C69=""),"",VLOOKUP(C69,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I69" s="7" t="b">
         <v>0</v>
@@ -5224,8 +5316,8 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="8" t="b">
-        <v>0</v>
+      <c r="L69" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M69" s="3">
         <v>68</v>
@@ -5241,21 +5333,21 @@
       <c r="C70" s="8">
         <v>4</v>
       </c>
-      <c r="D70" s="19" t="s">
-        <v>143</v>
+      <c r="D70" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E70" s="6" t="str">
         <f>IF((C70=""),"",VLOOKUP(C70,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I70" s="7" t="b">
         <v>0</v>
@@ -5266,8 +5358,8 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="8" t="b">
-        <v>0</v>
+      <c r="L70" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M70" s="3">
         <v>69</v>
@@ -5283,21 +5375,21 @@
       <c r="C71" s="8">
         <v>4</v>
       </c>
-      <c r="D71" s="18" t="s">
-        <v>154</v>
+      <c r="D71" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E71" s="6" t="str">
         <f>IF((C71=""),"",VLOOKUP(C71,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I71" s="7" t="b">
         <v>0</v>
@@ -5308,8 +5400,8 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="8" t="b">
-        <v>0</v>
+      <c r="L71" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M71" s="3">
         <v>70</v>
@@ -5322,7 +5414,7 @@
       <c r="C72" s="8">
         <v>4</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E72" s="6" t="str">
@@ -5336,7 +5428,7 @@
         <v>34</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I72" s="7" t="b">
         <v>0</v>
@@ -5347,8 +5439,8 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="8" t="b">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M72" s="3">
         <v>71</v>
@@ -5358,24 +5450,24 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="25">
         <v>4</v>
       </c>
-      <c r="D73" s="21" t="s">
-        <v>159</v>
+      <c r="D73" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="E73" s="6" t="str">
         <f>IF((C73=""),"",VLOOKUP(C73,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I73" s="7" t="b">
         <v>0</v>
@@ -5386,8 +5478,8 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="8" t="b">
-        <v>1</v>
+      <c r="L73" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M73" s="3">
         <v>72</v>
@@ -5397,24 +5489,24 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="C74" s="28">
+      <c r="C74" s="24">
         <v>5</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>161</v>
+      <c r="D74" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="E74" s="6" t="str">
         <f>IF((C74=""),"",VLOOKUP(C74,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I74" s="7" t="b">
         <v>0</v>
@@ -5425,8 +5517,8 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="8" t="b">
-        <v>1</v>
+      <c r="L74" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M74" s="3">
         <v>73</v>
@@ -5439,21 +5531,21 @@
       <c r="C75" s="8">
         <v>5</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>162</v>
+      <c r="D75" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E75" s="6" t="str">
         <f>IF((C75=""),"",VLOOKUP(C75,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I75" s="7" t="b">
         <v>0</v>
@@ -5464,8 +5556,8 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="8" t="b">
-        <v>1</v>
+      <c r="L75" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M75" s="3">
         <v>74</v>
@@ -5478,21 +5570,21 @@
       <c r="C76" s="8">
         <v>5</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>119</v>
+      <c r="D76" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E76" s="6" t="str">
         <f>IF((C76=""),"",VLOOKUP(C76,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I76" s="7" t="b">
         <v>0</v>
@@ -5503,8 +5595,8 @@
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="8" t="b">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M76" s="3">
         <v>75</v>
@@ -5517,21 +5609,21 @@
       <c r="C77" s="8">
         <v>5</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>160</v>
+      <c r="D77" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E77" s="6" t="str">
         <f>IF((C77=""),"",VLOOKUP(C77,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I77" s="7" t="b">
         <v>0</v>
@@ -5542,8 +5634,8 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="8" t="b">
-        <v>0</v>
+      <c r="L77" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M77" s="3">
         <v>76</v>
@@ -5556,21 +5648,21 @@
       <c r="C78" s="8">
         <v>5</v>
       </c>
-      <c r="D78" s="16" t="s">
-        <v>128</v>
+      <c r="D78" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E78" s="6" t="str">
         <f>IF((C78=""),"",VLOOKUP(C78,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I78" s="7" t="b">
         <v>0</v>
@@ -5581,8 +5673,8 @@
       <c r="K78" s="3">
         <v>0</v>
       </c>
-      <c r="L78" s="8" t="b">
-        <v>0</v>
+      <c r="L78" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M78" s="3">
         <v>77</v>
@@ -5598,21 +5690,21 @@
       <c r="C79" s="8">
         <v>5</v>
       </c>
-      <c r="D79" s="19" t="s">
-        <v>129</v>
+      <c r="D79" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E79" s="6" t="str">
         <f>IF((C79=""),"",VLOOKUP(C79,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I79" s="7" t="b">
         <v>0</v>
@@ -5623,8 +5715,8 @@
       <c r="K79" s="3">
         <v>0</v>
       </c>
-      <c r="L79" s="8" t="b">
-        <v>0</v>
+      <c r="L79" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M79" s="3">
         <v>78</v>
@@ -5640,21 +5732,21 @@
       <c r="C80" s="8">
         <v>5</v>
       </c>
-      <c r="D80" s="24" t="s">
-        <v>130</v>
+      <c r="D80" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="E80" s="6" t="str">
         <f>IF((C80=""),"",VLOOKUP(C80,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I80" s="7" t="b">
         <v>0</v>
@@ -5665,8 +5757,8 @@
       <c r="K80" s="3">
         <v>0</v>
       </c>
-      <c r="L80" s="8" t="b">
-        <v>0</v>
+      <c r="L80" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M80" s="3">
         <v>79</v>
@@ -5679,21 +5771,21 @@
       <c r="C81" s="8">
         <v>5</v>
       </c>
-      <c r="D81" s="16" t="s">
-        <v>131</v>
+      <c r="D81" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E81" s="6" t="str">
         <f>IF((C81=""),"",VLOOKUP(C81,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I81" s="7" t="b">
         <v>1</v>
@@ -5704,8 +5796,8 @@
       <c r="K81" s="3">
         <v>30</v>
       </c>
-      <c r="L81" s="8" t="b">
-        <v>0</v>
+      <c r="L81" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M81" s="3">
         <v>80</v>
@@ -5721,21 +5813,21 @@
       <c r="C82" s="8">
         <v>5</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>132</v>
+      <c r="D82" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E82" s="6" t="str">
         <f>IF((C82=""),"",VLOOKUP(C82,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I82" s="7" t="b">
         <v>0</v>
@@ -5746,8 +5838,8 @@
       <c r="K82" s="3">
         <v>0</v>
       </c>
-      <c r="L82" s="8" t="b">
-        <v>0</v>
+      <c r="L82" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M82" s="3">
         <v>81</v>
@@ -5763,21 +5855,21 @@
       <c r="C83" s="8">
         <v>5</v>
       </c>
-      <c r="D83" s="18" t="s">
-        <v>133</v>
+      <c r="D83" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E83" s="6" t="str">
         <f>IF((C83=""),"",VLOOKUP(C83,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I83" s="7" t="b">
         <v>0</v>
@@ -5788,8 +5880,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="8" t="b">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M83" s="3">
         <v>82</v>
@@ -5805,21 +5897,21 @@
       <c r="C84" s="8">
         <v>5</v>
       </c>
-      <c r="D84" s="19" t="s">
-        <v>134</v>
+      <c r="D84" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E84" s="6" t="str">
         <f>IF((C84=""),"",VLOOKUP(C84,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I84" s="7" t="b">
         <v>0</v>
@@ -5830,8 +5922,8 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="8" t="b">
-        <v>0</v>
+      <c r="L84" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M84" s="3">
         <v>83</v>
@@ -5847,33 +5939,33 @@
       <c r="C85" s="8">
         <v>5</v>
       </c>
-      <c r="D85" s="19" t="s">
-        <v>135</v>
+      <c r="D85" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E85" s="6" t="str">
         <f>IF((C85=""),"",VLOOKUP(C85,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I85" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="8" t="b">
-        <v>0</v>
+      <c r="L85" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M85" s="3">
         <v>84</v>
@@ -5886,21 +5978,21 @@
       <c r="C86" s="8">
         <v>5</v>
       </c>
-      <c r="D86" s="16" t="s">
-        <v>87</v>
+      <c r="D86" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E86" s="6" t="str">
         <f>IF((C86=""),"",VLOOKUP(C86,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I86" s="7" t="b">
         <v>0</v>
@@ -5911,8 +6003,8 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="8" t="b">
-        <v>0</v>
+      <c r="L86" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M86" s="3">
         <v>85</v>
@@ -5925,21 +6017,21 @@
       <c r="C87" s="8">
         <v>5</v>
       </c>
-      <c r="D87" s="16" t="s">
-        <v>88</v>
+      <c r="D87" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E87" s="6" t="str">
         <f>IF((C87=""),"",VLOOKUP(C87,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I87" s="7" t="b">
         <v>0</v>
@@ -5950,8 +6042,8 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="8" t="b">
-        <v>0</v>
+      <c r="L87" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M87" s="3">
         <v>86</v>
@@ -5964,21 +6056,21 @@
       <c r="C88" s="8">
         <v>5</v>
       </c>
-      <c r="D88" s="16" t="s">
-        <v>136</v>
+      <c r="D88" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E88" s="6" t="str">
         <f>IF((C88=""),"",VLOOKUP(C88,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I88" s="7" t="b">
         <v>0</v>
@@ -5989,8 +6081,8 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="8" t="b">
-        <v>0</v>
+      <c r="L88" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M88" s="3">
         <v>87</v>
@@ -6006,21 +6098,21 @@
       <c r="C89" s="8">
         <v>5</v>
       </c>
-      <c r="D89" s="19" t="s">
-        <v>137</v>
+      <c r="D89" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E89" s="6" t="str">
         <f>IF((C89=""),"",VLOOKUP(C89,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I89" s="7" t="b">
         <v>0</v>
@@ -6031,8 +6123,8 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="8" t="b">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M89" s="3">
         <v>88</v>
@@ -6048,21 +6140,21 @@
       <c r="C90" s="8">
         <v>5</v>
       </c>
-      <c r="D90" s="18" t="s">
-        <v>138</v>
+      <c r="D90" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="E90" s="6" t="str">
         <f>IF((C90=""),"",VLOOKUP(C90,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I90" s="7" t="b">
         <v>0</v>
@@ -6073,8 +6165,8 @@
       <c r="K90" s="3">
         <v>0</v>
       </c>
-      <c r="L90" s="8" t="b">
-        <v>0</v>
+      <c r="L90" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M90" s="3">
         <v>89</v>
@@ -6087,21 +6179,21 @@
       <c r="C91" s="8">
         <v>5</v>
       </c>
-      <c r="D91" s="17" t="s">
-        <v>151</v>
+      <c r="D91" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="E91" s="6" t="str">
         <f>IF((C91=""),"",VLOOKUP(C91,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I91" s="7" t="b">
         <v>0</v>
@@ -6112,8 +6204,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="8" t="b">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M91" s="3">
         <v>90</v>
@@ -6129,21 +6221,21 @@
       <c r="C92" s="8">
         <v>5</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>140</v>
+      <c r="D92" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E92" s="6" t="str">
         <f>IF((C92=""),"",VLOOKUP(C92,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I92" s="7" t="b">
         <v>0</v>
@@ -6154,8 +6246,8 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="8" t="b">
-        <v>0</v>
+      <c r="L92" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M92" s="3">
         <v>91</v>
@@ -6171,21 +6263,21 @@
       <c r="C93" s="8">
         <v>5</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>152</v>
+      <c r="D93" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E93" s="6" t="str">
         <f>IF((C93=""),"",VLOOKUP(C93,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I93" s="7" t="b">
         <v>0</v>
@@ -6196,8 +6288,8 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="8" t="b">
-        <v>0</v>
+      <c r="L93" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M93" s="3">
         <v>92</v>
@@ -6210,21 +6302,21 @@
       <c r="C94" s="8">
         <v>5</v>
       </c>
-      <c r="D94" s="17" t="s">
-        <v>153</v>
+      <c r="D94" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E94" s="6" t="str">
         <f>IF((C94=""),"",VLOOKUP(C94,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I94" s="7" t="b">
         <v>0</v>
@@ -6235,8 +6327,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="8" t="b">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M94" s="3">
         <v>93</v>
@@ -6252,21 +6344,21 @@
       <c r="C95" s="8">
         <v>5</v>
       </c>
-      <c r="D95" s="19" t="s">
-        <v>143</v>
+      <c r="D95" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E95" s="6" t="str">
         <f>IF((C95=""),"",VLOOKUP(C95,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I95" s="7" t="b">
         <v>0</v>
@@ -6277,8 +6369,8 @@
       <c r="K95" s="3">
         <v>0</v>
       </c>
-      <c r="L95" s="8" t="b">
-        <v>0</v>
+      <c r="L95" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M95" s="3">
         <v>94</v>
@@ -6294,21 +6386,21 @@
       <c r="C96" s="8">
         <v>5</v>
       </c>
-      <c r="D96" s="18" t="s">
-        <v>154</v>
+      <c r="D96" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E96" s="6" t="str">
         <f>IF((C96=""),"",VLOOKUP(C96,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I96" s="7" t="b">
         <v>0</v>
@@ -6319,8 +6411,8 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="8" t="b">
-        <v>0</v>
+      <c r="L96" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M96" s="3">
         <v>95</v>
@@ -6333,7 +6425,7 @@
       <c r="C97" s="8">
         <v>5</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="6" t="str">
@@ -6347,7 +6439,7 @@
         <v>34</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I97" s="7" t="b">
         <v>0</v>
@@ -6358,8 +6450,8 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="8" t="b">
-        <v>0</v>
+      <c r="L97" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M97" s="3">
         <v>96</v>
@@ -6369,24 +6461,24 @@
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="25">
         <v>5</v>
       </c>
-      <c r="D98" s="22" t="s">
-        <v>163</v>
+      <c r="D98" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E98" s="6" t="str">
         <f>IF((C98=""),"",VLOOKUP(C98,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I98" s="7" t="b">
         <v>0</v>
@@ -6397,8 +6489,8 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="8" t="b">
-        <v>1</v>
+      <c r="L98" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M98" s="3">
         <v>97</v>
@@ -6408,24 +6500,24 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C99" s="24">
         <v>6</v>
       </c>
-      <c r="D99" s="20" t="s">
-        <v>164</v>
+      <c r="D99" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="E99" s="6" t="str">
         <f>IF((C99=""),"",VLOOKUP(C99,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I99" s="7" t="b">
         <v>0</v>
@@ -6436,8 +6528,8 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="8" t="b">
-        <v>1</v>
+      <c r="L99" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M99" s="3">
         <v>98</v>
@@ -6450,21 +6542,21 @@
       <c r="C100" s="8">
         <v>6</v>
       </c>
-      <c r="D100" s="16" t="s">
-        <v>165</v>
+      <c r="D100" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E100" s="6" t="str">
         <f>IF((C100=""),"",VLOOKUP(C100,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I100" s="7" t="b">
         <v>0</v>
@@ -6475,8 +6567,8 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="8" t="b">
-        <v>1</v>
+      <c r="L100" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M100" s="3">
         <v>99</v>
@@ -6489,21 +6581,21 @@
       <c r="C101" s="8">
         <v>6</v>
       </c>
-      <c r="D101" s="16" t="s">
-        <v>162</v>
+      <c r="D101" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E101" s="6" t="str">
         <f>IF((C101=""),"",VLOOKUP(C101,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I101" s="7" t="b">
         <v>0</v>
@@ -6514,8 +6606,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="8" t="b">
-        <v>1</v>
+      <c r="L101" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
@@ -6528,21 +6620,21 @@
       <c r="C102" s="8">
         <v>6</v>
       </c>
-      <c r="D102" s="16" t="s">
-        <v>119</v>
+      <c r="D102" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E102" s="6" t="str">
         <f>IF((C102=""),"",VLOOKUP(C102,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I102" s="7" t="b">
         <v>0</v>
@@ -6553,8 +6645,8 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="8" t="b">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M102" s="3">
         <v>101</v>
@@ -6567,21 +6659,21 @@
       <c r="C103" s="8">
         <v>6</v>
       </c>
-      <c r="D103" s="16" t="s">
-        <v>166</v>
+      <c r="D103" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E103" s="6" t="str">
         <f>IF((C103=""),"",VLOOKUP(C103,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I103" s="7" t="b">
         <v>0</v>
@@ -6592,8 +6684,8 @@
       <c r="K103" s="3">
         <v>0</v>
       </c>
-      <c r="L103" s="8" t="b">
-        <v>0</v>
+      <c r="L103" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M103" s="3">
         <v>102</v>
@@ -6606,21 +6698,21 @@
       <c r="C104" s="8">
         <v>6</v>
       </c>
-      <c r="D104" s="16" t="s">
-        <v>128</v>
+      <c r="D104" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E104" s="6" t="str">
         <f>IF((C104=""),"",VLOOKUP(C104,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I104" s="7" t="b">
         <v>0</v>
@@ -6631,8 +6723,8 @@
       <c r="K104" s="3">
         <v>0</v>
       </c>
-      <c r="L104" s="8" t="b">
-        <v>0</v>
+      <c r="L104" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M104" s="3">
         <v>103</v>
@@ -6648,21 +6740,21 @@
       <c r="C105" s="8">
         <v>6</v>
       </c>
-      <c r="D105" s="19" t="s">
-        <v>129</v>
+      <c r="D105" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E105" s="6" t="str">
         <f>IF((C105=""),"",VLOOKUP(C105,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I105" s="7" t="b">
         <v>0</v>
@@ -6673,8 +6765,8 @@
       <c r="K105" s="3">
         <v>0</v>
       </c>
-      <c r="L105" s="8" t="b">
-        <v>0</v>
+      <c r="L105" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M105" s="3">
         <v>104</v>
@@ -6690,21 +6782,21 @@
       <c r="C106" s="8">
         <v>6</v>
       </c>
-      <c r="D106" s="18" t="s">
-        <v>130</v>
+      <c r="D106" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="E106" s="6" t="str">
         <f>IF((C106=""),"",VLOOKUP(C106,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I106" s="7" t="b">
         <v>0</v>
@@ -6715,8 +6807,8 @@
       <c r="K106" s="3">
         <v>0</v>
       </c>
-      <c r="L106" s="8" t="b">
-        <v>0</v>
+      <c r="L106" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M106" s="3">
         <v>105</v>
@@ -6729,21 +6821,21 @@
       <c r="C107" s="8">
         <v>6</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>131</v>
+      <c r="D107" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E107" s="6" t="str">
         <f>IF((C107=""),"",VLOOKUP(C107,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I107" s="7" t="b">
         <v>1</v>
@@ -6754,8 +6846,8 @@
       <c r="K107" s="3">
         <v>30</v>
       </c>
-      <c r="L107" s="8" t="b">
-        <v>0</v>
+      <c r="L107" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M107" s="3">
         <v>106</v>
@@ -6771,21 +6863,21 @@
       <c r="C108" s="8">
         <v>6</v>
       </c>
-      <c r="D108" s="19" t="s">
-        <v>132</v>
+      <c r="D108" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E108" s="6" t="str">
         <f>IF((C108=""),"",VLOOKUP(C108,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I108" s="7" t="b">
         <v>0</v>
@@ -6796,8 +6888,8 @@
       <c r="K108" s="3">
         <v>0</v>
       </c>
-      <c r="L108" s="8" t="b">
-        <v>0</v>
+      <c r="L108" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M108" s="3">
         <v>107</v>
@@ -6813,21 +6905,21 @@
       <c r="C109" s="8">
         <v>6</v>
       </c>
-      <c r="D109" s="18" t="s">
-        <v>133</v>
+      <c r="D109" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E109" s="6" t="str">
         <f>IF((C109=""),"",VLOOKUP(C109,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I109" s="7" t="b">
         <v>0</v>
@@ -6838,8 +6930,8 @@
       <c r="K109" s="3">
         <v>0</v>
       </c>
-      <c r="L109" s="8" t="b">
-        <v>0</v>
+      <c r="L109" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M109" s="3">
         <v>108</v>
@@ -6855,21 +6947,21 @@
       <c r="C110" s="8">
         <v>6</v>
       </c>
-      <c r="D110" s="19" t="s">
-        <v>134</v>
+      <c r="D110" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E110" s="6" t="str">
         <f>IF((C110=""),"",VLOOKUP(C110,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I110" s="7" t="b">
         <v>0</v>
@@ -6880,8 +6972,8 @@
       <c r="K110" s="3">
         <v>0</v>
       </c>
-      <c r="L110" s="8" t="b">
-        <v>0</v>
+      <c r="L110" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M110" s="3">
         <v>109</v>
@@ -6897,33 +6989,33 @@
       <c r="C111" s="8">
         <v>6</v>
       </c>
-      <c r="D111" s="19" t="s">
-        <v>135</v>
+      <c r="D111" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E111" s="6" t="str">
         <f>IF((C111=""),"",VLOOKUP(C111,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I111" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K111" s="3">
         <v>0</v>
       </c>
-      <c r="L111" s="8" t="b">
-        <v>0</v>
+      <c r="L111" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M111" s="3">
         <v>110</v>
@@ -6936,21 +7028,21 @@
       <c r="C112" s="8">
         <v>6</v>
       </c>
-      <c r="D112" s="16" t="s">
-        <v>87</v>
+      <c r="D112" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E112" s="6" t="str">
         <f>IF((C112=""),"",VLOOKUP(C112,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I112" s="7" t="b">
         <v>0</v>
@@ -6961,8 +7053,8 @@
       <c r="K112" s="3">
         <v>0</v>
       </c>
-      <c r="L112" s="8" t="b">
-        <v>0</v>
+      <c r="L112" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M112" s="3">
         <v>111</v>
@@ -6975,21 +7067,21 @@
       <c r="C113" s="8">
         <v>6</v>
       </c>
-      <c r="D113" s="16" t="s">
-        <v>88</v>
+      <c r="D113" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E113" s="6" t="str">
         <f>IF((C113=""),"",VLOOKUP(C113,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I113" s="7" t="b">
         <v>0</v>
@@ -7000,8 +7092,8 @@
       <c r="K113" s="3">
         <v>0</v>
       </c>
-      <c r="L113" s="8" t="b">
-        <v>0</v>
+      <c r="L113" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M113" s="3">
         <v>112</v>
@@ -7014,21 +7106,21 @@
       <c r="C114" s="8">
         <v>6</v>
       </c>
-      <c r="D114" s="16" t="s">
-        <v>136</v>
+      <c r="D114" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E114" s="6" t="str">
         <f>IF((C114=""),"",VLOOKUP(C114,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I114" s="7" t="b">
         <v>0</v>
@@ -7039,8 +7131,8 @@
       <c r="K114" s="3">
         <v>0</v>
       </c>
-      <c r="L114" s="8" t="b">
-        <v>0</v>
+      <c r="L114" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M114" s="3">
         <v>113</v>
@@ -7056,21 +7148,21 @@
       <c r="C115" s="8">
         <v>6</v>
       </c>
-      <c r="D115" s="19" t="s">
-        <v>137</v>
+      <c r="D115" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E115" s="6" t="str">
         <f>IF((C115=""),"",VLOOKUP(C115,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I115" s="7" t="b">
         <v>0</v>
@@ -7081,8 +7173,8 @@
       <c r="K115" s="3">
         <v>0</v>
       </c>
-      <c r="L115" s="8" t="b">
-        <v>0</v>
+      <c r="L115" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M115" s="3">
         <v>114</v>
@@ -7098,21 +7190,21 @@
       <c r="C116" s="8">
         <v>6</v>
       </c>
-      <c r="D116" s="18" t="s">
-        <v>138</v>
+      <c r="D116" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="E116" s="6" t="str">
         <f>IF((C116=""),"",VLOOKUP(C116,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I116" s="7" t="b">
         <v>0</v>
@@ -7123,8 +7215,8 @@
       <c r="K116" s="3">
         <v>0</v>
       </c>
-      <c r="L116" s="8" t="b">
-        <v>0</v>
+      <c r="L116" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M116" s="3">
         <v>115</v>
@@ -7137,21 +7229,21 @@
       <c r="C117" s="8">
         <v>6</v>
       </c>
-      <c r="D117" s="17" t="s">
-        <v>151</v>
+      <c r="D117" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="E117" s="6" t="str">
         <f>IF((C117=""),"",VLOOKUP(C117,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I117" s="7" t="b">
         <v>0</v>
@@ -7162,8 +7254,8 @@
       <c r="K117" s="3">
         <v>0</v>
       </c>
-      <c r="L117" s="8" t="b">
-        <v>0</v>
+      <c r="L117" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M117" s="3">
         <v>116</v>
@@ -7179,21 +7271,21 @@
       <c r="C118" s="8">
         <v>6</v>
       </c>
-      <c r="D118" s="19" t="s">
-        <v>140</v>
+      <c r="D118" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E118" s="6" t="str">
         <f>IF((C118=""),"",VLOOKUP(C118,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I118" s="7" t="b">
         <v>0</v>
@@ -7204,8 +7296,8 @@
       <c r="K118" s="3">
         <v>0</v>
       </c>
-      <c r="L118" s="8" t="b">
-        <v>0</v>
+      <c r="L118" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M118" s="3">
         <v>117</v>
@@ -7221,21 +7313,21 @@
       <c r="C119" s="8">
         <v>6</v>
       </c>
-      <c r="D119" s="18" t="s">
-        <v>152</v>
+      <c r="D119" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E119" s="6" t="str">
         <f>IF((C119=""),"",VLOOKUP(C119,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I119" s="7" t="b">
         <v>0</v>
@@ -7246,8 +7338,8 @@
       <c r="K119" s="3">
         <v>0</v>
       </c>
-      <c r="L119" s="8" t="b">
-        <v>0</v>
+      <c r="L119" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M119" s="3">
         <v>118</v>
@@ -7260,21 +7352,21 @@
       <c r="C120" s="8">
         <v>6</v>
       </c>
-      <c r="D120" s="17" t="s">
-        <v>153</v>
+      <c r="D120" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E120" s="6" t="str">
         <f>IF((C120=""),"",VLOOKUP(C120,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G120" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I120" s="7" t="b">
         <v>0</v>
@@ -7285,8 +7377,8 @@
       <c r="K120" s="3">
         <v>0</v>
       </c>
-      <c r="L120" s="8" t="b">
-        <v>0</v>
+      <c r="L120" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M120" s="3">
         <v>119</v>
@@ -7302,21 +7394,21 @@
       <c r="C121" s="8">
         <v>6</v>
       </c>
-      <c r="D121" s="19" t="s">
-        <v>143</v>
+      <c r="D121" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E121" s="6" t="str">
         <f>IF((C121=""),"",VLOOKUP(C121,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I121" s="7" t="b">
         <v>0</v>
@@ -7327,8 +7419,8 @@
       <c r="K121" s="3">
         <v>0</v>
       </c>
-      <c r="L121" s="8" t="b">
-        <v>0</v>
+      <c r="L121" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M121" s="3">
         <v>120</v>
@@ -7344,21 +7436,21 @@
       <c r="C122" s="8">
         <v>6</v>
       </c>
-      <c r="D122" s="18" t="s">
-        <v>154</v>
+      <c r="D122" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E122" s="6" t="str">
         <f>IF((C122=""),"",VLOOKUP(C122,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G122" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I122" s="7" t="b">
         <v>0</v>
@@ -7369,8 +7461,8 @@
       <c r="K122" s="3">
         <v>0</v>
       </c>
-      <c r="L122" s="8" t="b">
-        <v>0</v>
+      <c r="L122" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M122" s="3">
         <v>121</v>
@@ -7383,7 +7475,7 @@
       <c r="C123" s="8">
         <v>6</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="D123" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E123" s="6" t="str">
@@ -7397,7 +7489,7 @@
         <v>34</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I123" s="7" t="b">
         <v>0</v>
@@ -7408,8 +7500,8 @@
       <c r="K123" s="3">
         <v>0</v>
       </c>
-      <c r="L123" s="8" t="b">
-        <v>0</v>
+      <c r="L123" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M123" s="3">
         <v>122</v>
@@ -7419,24 +7511,24 @@
       <c r="A124" s="3">
         <v>123</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="25">
         <v>6</v>
       </c>
-      <c r="D124" s="22" t="s">
-        <v>163</v>
+      <c r="D124" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E124" s="6" t="str">
         <f>IF((C124=""),"",VLOOKUP(C124,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I124" s="7" t="b">
         <v>0</v>
@@ -7447,8 +7539,8 @@
       <c r="K124" s="3">
         <v>0</v>
       </c>
-      <c r="L124" s="8" t="b">
-        <v>1</v>
+      <c r="L124" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M124" s="3">
         <v>123</v>
@@ -7458,24 +7550,24 @@
       <c r="A125" s="3">
         <v>124</v>
       </c>
-      <c r="C125" s="28">
+      <c r="C125" s="24">
         <v>7</v>
       </c>
-      <c r="D125" s="20" t="s">
-        <v>167</v>
+      <c r="D125" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="E125" s="6" t="str">
         <f>IF((C125=""),"",VLOOKUP(C125,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I125" s="7" t="b">
         <v>0</v>
@@ -7486,8 +7578,8 @@
       <c r="K125" s="3">
         <v>0</v>
       </c>
-      <c r="L125" s="8" t="b">
-        <v>1</v>
+      <c r="L125" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M125" s="3">
         <v>124</v>
@@ -7500,21 +7592,21 @@
       <c r="C126" s="8">
         <v>7</v>
       </c>
-      <c r="D126" s="16" t="s">
-        <v>165</v>
+      <c r="D126" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E126" s="6" t="str">
         <f>IF((C126=""),"",VLOOKUP(C126,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I126" s="7" t="b">
         <v>0</v>
@@ -7525,8 +7617,8 @@
       <c r="K126" s="3">
         <v>0</v>
       </c>
-      <c r="L126" s="8" t="b">
-        <v>1</v>
+      <c r="L126" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M126" s="3">
         <v>125</v>
@@ -7539,21 +7631,21 @@
       <c r="C127" s="8">
         <v>7</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>162</v>
+      <c r="D127" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E127" s="6" t="str">
         <f>IF((C127=""),"",VLOOKUP(C127,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I127" s="7" t="b">
         <v>0</v>
@@ -7564,8 +7656,8 @@
       <c r="K127" s="3">
         <v>0</v>
       </c>
-      <c r="L127" s="8" t="b">
-        <v>1</v>
+      <c r="L127" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M127" s="3">
         <v>126</v>
@@ -7578,21 +7670,21 @@
       <c r="C128" s="8">
         <v>7</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>119</v>
+      <c r="D128" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E128" s="6" t="str">
         <f>IF((C128=""),"",VLOOKUP(C128,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I128" s="7" t="b">
         <v>0</v>
@@ -7603,8 +7695,8 @@
       <c r="K128" s="3">
         <v>0</v>
       </c>
-      <c r="L128" s="8" t="b">
-        <v>0</v>
+      <c r="L128" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M128" s="3">
         <v>127</v>
@@ -7617,21 +7709,21 @@
       <c r="C129" s="8">
         <v>7</v>
       </c>
-      <c r="D129" s="16" t="s">
-        <v>166</v>
+      <c r="D129" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E129" s="6" t="str">
         <f>IF((C129=""),"",VLOOKUP(C129,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I129" s="7" t="b">
         <v>0</v>
@@ -7642,8 +7734,8 @@
       <c r="K129" s="3">
         <v>0</v>
       </c>
-      <c r="L129" s="8" t="b">
-        <v>0</v>
+      <c r="L129" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M129" s="3">
         <v>128</v>
@@ -7656,21 +7748,21 @@
       <c r="C130" s="8">
         <v>7</v>
       </c>
-      <c r="D130" s="16" t="s">
-        <v>128</v>
+      <c r="D130" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E130" s="6" t="str">
         <f>IF((C130=""),"",VLOOKUP(C130,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I130" s="7" t="b">
         <v>0</v>
@@ -7681,8 +7773,8 @@
       <c r="K130" s="3">
         <v>0</v>
       </c>
-      <c r="L130" s="8" t="b">
-        <v>0</v>
+      <c r="L130" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M130" s="3">
         <v>129</v>
@@ -7698,21 +7790,21 @@
       <c r="C131" s="8">
         <v>7</v>
       </c>
-      <c r="D131" s="19" t="s">
-        <v>129</v>
+      <c r="D131" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="E131" s="6" t="str">
         <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I131" s="7" t="b">
         <v>0</v>
@@ -7723,8 +7815,8 @@
       <c r="K131" s="3">
         <v>0</v>
       </c>
-      <c r="L131" s="8" t="b">
-        <v>0</v>
+      <c r="L131" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M131" s="3">
         <v>130</v>
@@ -7740,21 +7832,21 @@
       <c r="C132" s="8">
         <v>7</v>
       </c>
-      <c r="D132" s="18" t="s">
-        <v>130</v>
+      <c r="D132" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="E132" s="6" t="str">
         <f>IF((C132=""),"",VLOOKUP(C132,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I132" s="7" t="b">
         <v>0</v>
@@ -7765,8 +7857,8 @@
       <c r="K132" s="3">
         <v>0</v>
       </c>
-      <c r="L132" s="8" t="b">
-        <v>0</v>
+      <c r="L132" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M132" s="3">
         <v>131</v>
@@ -7779,21 +7871,21 @@
       <c r="C133" s="8">
         <v>7</v>
       </c>
-      <c r="D133" s="16" t="s">
-        <v>131</v>
+      <c r="D133" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E133" s="6" t="str">
         <f>IF((C133=""),"",VLOOKUP(C133,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I133" s="7" t="b">
         <v>1</v>
@@ -7804,8 +7896,8 @@
       <c r="K133" s="3">
         <v>30</v>
       </c>
-      <c r="L133" s="8" t="b">
-        <v>0</v>
+      <c r="L133" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M133" s="3">
         <v>132</v>
@@ -7821,21 +7913,21 @@
       <c r="C134" s="8">
         <v>7</v>
       </c>
-      <c r="D134" s="19" t="s">
-        <v>132</v>
+      <c r="D134" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="E134" s="6" t="str">
         <f>IF((C134=""),"",VLOOKUP(C134,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I134" s="7" t="b">
         <v>0</v>
@@ -7846,8 +7938,8 @@
       <c r="K134" s="3">
         <v>0</v>
       </c>
-      <c r="L134" s="8" t="b">
-        <v>0</v>
+      <c r="L134" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M134" s="3">
         <v>133</v>
@@ -7863,21 +7955,21 @@
       <c r="C135" s="8">
         <v>7</v>
       </c>
-      <c r="D135" s="18" t="s">
-        <v>133</v>
+      <c r="D135" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="E135" s="6" t="str">
         <f>IF((C135=""),"",VLOOKUP(C135,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I135" s="7" t="b">
         <v>0</v>
@@ -7888,8 +7980,8 @@
       <c r="K135" s="3">
         <v>0</v>
       </c>
-      <c r="L135" s="8" t="b">
-        <v>0</v>
+      <c r="L135" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M135" s="3">
         <v>134</v>
@@ -7905,21 +7997,21 @@
       <c r="C136" s="8">
         <v>7</v>
       </c>
-      <c r="D136" s="19" t="s">
-        <v>134</v>
+      <c r="D136" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="E136" s="6" t="str">
         <f>IF((C136=""),"",VLOOKUP(C136,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I136" s="7" t="b">
         <v>0</v>
@@ -7930,8 +8022,8 @@
       <c r="K136" s="3">
         <v>0</v>
       </c>
-      <c r="L136" s="8" t="b">
-        <v>0</v>
+      <c r="L136" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M136" s="3">
         <v>135</v>
@@ -7947,33 +8039,33 @@
       <c r="C137" s="8">
         <v>7</v>
       </c>
-      <c r="D137" s="19" t="s">
-        <v>135</v>
+      <c r="D137" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="E137" s="6" t="str">
         <f>IF((C137=""),"",VLOOKUP(C137,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I137" s="7" t="b">
         <v>0</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K137" s="3">
         <v>0</v>
       </c>
-      <c r="L137" s="8" t="b">
-        <v>0</v>
+      <c r="L137" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M137" s="3">
         <v>136</v>
@@ -7986,21 +8078,21 @@
       <c r="C138" s="8">
         <v>7</v>
       </c>
-      <c r="D138" s="16" t="s">
-        <v>87</v>
+      <c r="D138" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E138" s="6" t="str">
         <f>IF((C138=""),"",VLOOKUP(C138,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I138" s="7" t="b">
         <v>0</v>
@@ -8011,8 +8103,8 @@
       <c r="K138" s="3">
         <v>0</v>
       </c>
-      <c r="L138" s="8" t="b">
-        <v>0</v>
+      <c r="L138" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M138" s="3">
         <v>137</v>
@@ -8025,21 +8117,21 @@
       <c r="C139" s="8">
         <v>7</v>
       </c>
-      <c r="D139" s="16" t="s">
-        <v>88</v>
+      <c r="D139" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E139" s="6" t="str">
         <f>IF((C139=""),"",VLOOKUP(C139,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G139" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I139" s="7" t="b">
         <v>0</v>
@@ -8050,8 +8142,8 @@
       <c r="K139" s="3">
         <v>0</v>
       </c>
-      <c r="L139" s="8" t="b">
-        <v>0</v>
+      <c r="L139" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M139" s="3">
         <v>138</v>
@@ -8064,21 +8156,21 @@
       <c r="C140" s="8">
         <v>7</v>
       </c>
-      <c r="D140" s="16" t="s">
-        <v>136</v>
+      <c r="D140" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E140" s="6" t="str">
         <f>IF((C140=""),"",VLOOKUP(C140,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G140" s="7" t="s">
         <v>39</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I140" s="7" t="b">
         <v>0</v>
@@ -8089,8 +8181,8 @@
       <c r="K140" s="3">
         <v>0</v>
       </c>
-      <c r="L140" s="8" t="b">
-        <v>0</v>
+      <c r="L140" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M140" s="3">
         <v>139</v>
@@ -8106,21 +8198,21 @@
       <c r="C141" s="8">
         <v>7</v>
       </c>
-      <c r="D141" s="19" t="s">
-        <v>137</v>
+      <c r="D141" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="E141" s="6" t="str">
         <f>IF((C141=""),"",VLOOKUP(C141,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I141" s="7" t="b">
         <v>0</v>
@@ -8131,8 +8223,8 @@
       <c r="K141" s="3">
         <v>0</v>
       </c>
-      <c r="L141" s="8" t="b">
-        <v>0</v>
+      <c r="L141" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M141" s="3">
         <v>140</v>
@@ -8148,21 +8240,21 @@
       <c r="C142" s="8">
         <v>7</v>
       </c>
-      <c r="D142" s="18" t="s">
-        <v>138</v>
+      <c r="D142" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="E142" s="6" t="str">
         <f>IF((C142=""),"",VLOOKUP(C142,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I142" s="7" t="b">
         <v>0</v>
@@ -8173,8 +8265,8 @@
       <c r="K142" s="3">
         <v>0</v>
       </c>
-      <c r="L142" s="8" t="b">
-        <v>0</v>
+      <c r="L142" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M142" s="3">
         <v>141</v>
@@ -8187,21 +8279,21 @@
       <c r="C143" s="8">
         <v>7</v>
       </c>
-      <c r="D143" s="17" t="s">
-        <v>151</v>
+      <c r="D143" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="E143" s="6" t="str">
         <f>IF((C143=""),"",VLOOKUP(C143,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I143" s="7" t="b">
         <v>0</v>
@@ -8212,8 +8304,8 @@
       <c r="K143" s="3">
         <v>0</v>
       </c>
-      <c r="L143" s="8" t="b">
-        <v>0</v>
+      <c r="L143" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M143" s="3">
         <v>142</v>
@@ -8229,21 +8321,21 @@
       <c r="C144" s="8">
         <v>7</v>
       </c>
-      <c r="D144" s="19" t="s">
-        <v>140</v>
+      <c r="D144" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E144" s="6" t="str">
         <f>IF((C144=""),"",VLOOKUP(C144,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I144" s="7" t="b">
         <v>0</v>
@@ -8254,8 +8346,8 @@
       <c r="K144" s="3">
         <v>0</v>
       </c>
-      <c r="L144" s="8" t="b">
-        <v>0</v>
+      <c r="L144" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M144" s="3">
         <v>143</v>
@@ -8271,21 +8363,21 @@
       <c r="C145" s="8">
         <v>7</v>
       </c>
-      <c r="D145" s="18" t="s">
-        <v>152</v>
+      <c r="D145" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="E145" s="6" t="str">
         <f>IF((C145=""),"",VLOOKUP(C145,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I145" s="7" t="b">
         <v>0</v>
@@ -8296,8 +8388,8 @@
       <c r="K145" s="3">
         <v>0</v>
       </c>
-      <c r="L145" s="8" t="b">
-        <v>0</v>
+      <c r="L145" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M145" s="3">
         <v>144</v>
@@ -8310,21 +8402,21 @@
       <c r="C146" s="8">
         <v>7</v>
       </c>
-      <c r="D146" s="17" t="s">
-        <v>153</v>
+      <c r="D146" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E146" s="6" t="str">
         <f>IF((C146=""),"",VLOOKUP(C146,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I146" s="7" t="b">
         <v>0</v>
@@ -8335,8 +8427,8 @@
       <c r="K146" s="3">
         <v>0</v>
       </c>
-      <c r="L146" s="8" t="b">
-        <v>0</v>
+      <c r="L146" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M146" s="3">
         <v>145</v>
@@ -8352,21 +8444,21 @@
       <c r="C147" s="8">
         <v>7</v>
       </c>
-      <c r="D147" s="19" t="s">
-        <v>143</v>
+      <c r="D147" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E147" s="6" t="str">
         <f>IF((C147=""),"",VLOOKUP(C147,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I147" s="7" t="b">
         <v>0</v>
@@ -8377,8 +8469,8 @@
       <c r="K147" s="3">
         <v>0</v>
       </c>
-      <c r="L147" s="8" t="b">
-        <v>0</v>
+      <c r="L147" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M147" s="3">
         <v>146</v>
@@ -8394,21 +8486,21 @@
       <c r="C148" s="8">
         <v>7</v>
       </c>
-      <c r="D148" s="18" t="s">
-        <v>154</v>
+      <c r="D148" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E148" s="6" t="str">
         <f>IF((C148=""),"",VLOOKUP(C148,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I148" s="7" t="b">
         <v>0</v>
@@ -8419,8 +8511,8 @@
       <c r="K148" s="3">
         <v>0</v>
       </c>
-      <c r="L148" s="8" t="b">
-        <v>0</v>
+      <c r="L148" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M148" s="3">
         <v>147</v>
@@ -8433,7 +8525,7 @@
       <c r="C149" s="8">
         <v>7</v>
       </c>
-      <c r="D149" s="16" t="s">
+      <c r="D149" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E149" s="6" t="str">
@@ -8447,7 +8539,7 @@
         <v>34</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I149" s="7" t="b">
         <v>0</v>
@@ -8458,8 +8550,8 @@
       <c r="K149" s="3">
         <v>0</v>
       </c>
-      <c r="L149" s="8" t="b">
-        <v>0</v>
+      <c r="L149" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M149" s="3">
         <v>148</v>
@@ -8469,24 +8561,24 @@
       <c r="A150" s="3">
         <v>149</v>
       </c>
-      <c r="C150" s="29">
+      <c r="C150" s="25">
         <v>7</v>
       </c>
-      <c r="D150" s="22" t="s">
-        <v>163</v>
+      <c r="D150" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="E150" s="6" t="str">
         <f>IF((C150=""),"",VLOOKUP(C150,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I150" s="7" t="b">
         <v>0</v>
@@ -8497,8 +8589,8 @@
       <c r="K150" s="3">
         <v>0</v>
       </c>
-      <c r="L150" s="8" t="b">
-        <v>1</v>
+      <c r="L150" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M150" s="3">
         <v>149</v>
@@ -8508,24 +8600,24 @@
       <c r="A151" s="3">
         <v>150</v>
       </c>
-      <c r="C151" s="28">
+      <c r="C151" s="24">
         <v>8</v>
       </c>
-      <c r="D151" s="20" t="s">
-        <v>168</v>
+      <c r="D151" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="E151" s="6" t="str">
         <f>IF((C151=""),"",VLOOKUP(C151,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I151" s="7" t="b">
         <v>0</v>
@@ -8536,8 +8628,8 @@
       <c r="K151" s="3">
         <v>0</v>
       </c>
-      <c r="L151" s="8" t="b">
-        <v>1</v>
+      <c r="L151" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M151" s="3">
         <v>150</v>
@@ -8550,21 +8642,21 @@
       <c r="C152" s="8">
         <v>8</v>
       </c>
-      <c r="D152" s="16" t="s">
-        <v>169</v>
+      <c r="D152" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E152" s="6" t="str">
         <f>IF((C152=""),"",VLOOKUP(C152,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I152" s="7" t="b">
         <v>0</v>
@@ -8575,8 +8667,8 @@
       <c r="K152" s="3">
         <v>0</v>
       </c>
-      <c r="L152" s="8" t="b">
-        <v>1</v>
+      <c r="L152" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M152" s="3">
         <v>151</v>
@@ -8592,21 +8684,21 @@
       <c r="C153" s="8">
         <v>8</v>
       </c>
-      <c r="D153" s="18" t="s">
-        <v>170</v>
+      <c r="D153" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="E153" s="6" t="str">
         <f>IF((C153=""),"",VLOOKUP(C153,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I153" s="7" t="b">
         <v>0</v>
@@ -8617,8 +8709,8 @@
       <c r="K153" s="3">
         <v>0</v>
       </c>
-      <c r="L153" s="8" t="b">
-        <v>1</v>
+      <c r="L153" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M153" s="3">
         <v>152</v>
@@ -8631,21 +8723,21 @@
       <c r="C154" s="8">
         <v>8</v>
       </c>
-      <c r="D154" s="16" t="s">
-        <v>119</v>
+      <c r="D154" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E154" s="6" t="str">
         <f>IF((C154=""),"",VLOOKUP(C154,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I154" s="7" t="b">
         <v>0</v>
@@ -8656,8 +8748,8 @@
       <c r="K154" s="3">
         <v>0</v>
       </c>
-      <c r="L154" s="8" t="b">
-        <v>0</v>
+      <c r="L154" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M154" s="3">
         <v>153</v>
@@ -8670,21 +8762,21 @@
       <c r="C155" s="8">
         <v>8</v>
       </c>
-      <c r="D155" s="17" t="s">
-        <v>153</v>
+      <c r="D155" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="E155" s="6" t="str">
         <f>IF((C155=""),"",VLOOKUP(C155,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I155" s="7" t="b">
         <v>0</v>
@@ -8695,8 +8787,8 @@
       <c r="K155" s="3">
         <v>0</v>
       </c>
-      <c r="L155" s="8" t="b">
-        <v>0</v>
+      <c r="L155" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M155" s="3">
         <v>154</v>
@@ -8712,21 +8804,21 @@
       <c r="C156" s="8">
         <v>8</v>
       </c>
-      <c r="D156" s="19" t="s">
-        <v>143</v>
+      <c r="D156" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="E156" s="6" t="str">
         <f>IF((C156=""),"",VLOOKUP(C156,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I156" s="7" t="b">
         <v>0</v>
@@ -8737,8 +8829,8 @@
       <c r="K156" s="3">
         <v>0</v>
       </c>
-      <c r="L156" s="8" t="b">
-        <v>0</v>
+      <c r="L156" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M156" s="3">
         <v>155</v>
@@ -8754,21 +8846,21 @@
       <c r="C157" s="8">
         <v>8</v>
       </c>
-      <c r="D157" s="18" t="s">
-        <v>154</v>
+      <c r="D157" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E157" s="6" t="str">
         <f>IF((C157=""),"",VLOOKUP(C157,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I157" s="7" t="b">
         <v>0</v>
@@ -8779,8 +8871,8 @@
       <c r="K157" s="3">
         <v>0</v>
       </c>
-      <c r="L157" s="8" t="b">
-        <v>0</v>
+      <c r="L157" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M157" s="3">
         <v>156</v>
@@ -8793,7 +8885,7 @@
       <c r="C158" s="8">
         <v>8</v>
       </c>
-      <c r="D158" s="16" t="s">
+      <c r="D158" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E158" s="6" t="str">
@@ -8807,7 +8899,7 @@
         <v>34</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I158" s="7" t="b">
         <v>0</v>
@@ -8818,8 +8910,8 @@
       <c r="K158" s="3">
         <v>0</v>
       </c>
-      <c r="L158" s="8" t="b">
-        <v>0</v>
+      <c r="L158" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="M158" s="3">
         <v>157</v>
@@ -8832,21 +8924,21 @@
       <c r="C159" s="8">
         <v>8</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>171</v>
+      <c r="D159" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="E159" s="6" t="str">
         <f>IF((C159=""),"",VLOOKUP(C159,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I159" s="7" t="b">
         <v>0</v>
@@ -8857,8 +8949,8 @@
       <c r="K159" s="3">
         <v>0</v>
       </c>
-      <c r="L159" s="8" t="b">
-        <v>1</v>
+      <c r="L159" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M159" s="3">
         <v>158</v>
@@ -8874,21 +8966,21 @@
       <c r="C160" s="8">
         <v>8</v>
       </c>
-      <c r="D160" s="19" t="s">
-        <v>172</v>
+      <c r="D160" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="E160" s="6" t="str">
         <f>IF((C160=""),"",VLOOKUP(C160,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I160" s="7" t="b">
         <v>0</v>
@@ -8899,8 +8991,8 @@
       <c r="K160" s="3">
         <v>0</v>
       </c>
-      <c r="L160" s="8" t="b">
-        <v>1</v>
+      <c r="L160" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M160" s="3">
         <v>159</v>
@@ -8913,24 +9005,24 @@
       <c r="B161" s="3">
         <v>158</v>
       </c>
-      <c r="C161" s="29">
+      <c r="C161" s="25">
         <v>8</v>
       </c>
-      <c r="D161" s="18" t="s">
-        <v>173</v>
+      <c r="D161" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="E161" s="6" t="str">
         <f>IF((C161=""),"",VLOOKUP(C161,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I161" s="7" t="b">
         <v>0</v>
@@ -8941,24 +9033,12 @@
       <c r="K161" s="3">
         <v>0</v>
       </c>
-      <c r="L161" s="8" t="b">
-        <v>1</v>
+      <c r="L161" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="M161" s="3">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D162" s="16"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D163" s="16"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D164" s="16"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D165" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H161">
@@ -8972,13 +9052,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C94FEBB1-315A-4609-9BCC-2B9E16A284E8}">
-          <x14:formula1>
-            <xm:f>Lookups!$M$3:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L161</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{52DB5617-9AC6-42B3-A0A1-82418CF13405}">
           <x14:formula1>
             <xm:f>Lookups!$K$3:$K$9</xm:f>
@@ -9023,7 +9097,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9064,7 +9138,7 @@
         <v>Submission Withdrawn</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -9082,7 +9156,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -9100,7 +9174,7 @@
         <v>Amendment Request Terminated s.39(d)</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
@@ -9118,7 +9192,7 @@
         <v>Amendment Request Withdrawn</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -9136,7 +9210,7 @@
         <v>Assessment Procedures Posted</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
@@ -9154,7 +9228,7 @@
         <v>"Draft" Amendment Application Initial Review</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3">
         <v>6</v>
@@ -9172,7 +9246,7 @@
         <v>"Draft" Amendment Application Initial Review</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -9190,7 +9264,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
@@ -9208,7 +9282,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3">
         <v>9</v>
@@ -9226,7 +9300,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -9244,7 +9318,7 @@
         <v>Amendment Application Received</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3">
         <v>11</v>
@@ -9262,7 +9336,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
@@ -9280,7 +9354,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E14" s="3">
         <v>13</v>
@@ -9298,7 +9372,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E15" s="3">
         <v>14</v>
@@ -9316,7 +9390,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="3">
         <v>15</v>
@@ -9334,7 +9408,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="3">
         <v>16</v>
@@ -9352,7 +9426,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" s="3">
         <v>17</v>
@@ -9370,7 +9444,7 @@
         <v>Amendment Complexity/Fee Decision</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" s="3">
         <v>18</v>
@@ -9388,7 +9462,7 @@
         <v>Amendment Complexity/Fee Decision</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" s="3">
         <v>19</v>
@@ -9406,7 +9480,7 @@
         <v>Amendment Complexity/Fee Decision</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="3">
         <v>20</v>
@@ -9424,7 +9498,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="3">
         <v>21</v>
@@ -9442,7 +9516,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="3">
         <v>22</v>
@@ -9460,7 +9534,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="3">
         <v>23</v>
@@ -9478,7 +9552,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E25" s="3">
         <v>24</v>
@@ -9496,7 +9570,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="3">
         <v>25</v>
@@ -9514,7 +9588,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="3">
         <v>26</v>
@@ -9532,7 +9606,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E28" s="3">
         <v>27</v>
@@ -9550,7 +9624,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="3">
         <v>28</v>
@@ -9568,7 +9642,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="3">
         <v>29</v>
@@ -9586,7 +9660,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="3">
         <v>30</v>
@@ -9604,7 +9678,7 @@
         <v>Amendment Decision</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32" s="3">
         <v>31</v>
@@ -9622,7 +9696,7 @@
         <v>Amendment Decision</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="3">
         <v>32</v>
@@ -9649,11 +9723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9662,7 +9736,7 @@
     <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="70.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="70.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="170" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
@@ -9702,14 +9776,14 @@
         <f>IF((B2=""),"",VLOOKUP(B2,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Submission from the Amendment process</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9727,13 +9801,13 @@
         <v>Holder withdraws Submission from the Amendment process</v>
       </c>
       <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9750,14 +9824,14 @@
         <f>IF((B4=""),"",VLOOKUP(B4,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Submission from the Amendment process</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -9774,14 +9848,14 @@
         <f>IF((B5=""),"",VLOOKUP(B5,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Dispute Resolution is started</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -9798,14 +9872,14 @@
         <f>IF((B6=""),"",VLOOKUP(B6,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment Request is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -9823,13 +9897,13 @@
         <v>Amendment Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>200</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -9846,14 +9920,14 @@
         <f>IF((B8=""),"",VLOOKUP(B8,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment Request is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>205</v>
+      <c r="D8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -9870,14 +9944,14 @@
         <f>IF((B9=""),"",VLOOKUP(B9,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Amendment Request from EA process</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -9895,13 +9969,13 @@
         <v>Holder withdraws Amendment Request from EA process</v>
       </c>
       <c r="D10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -9918,14 +9992,14 @@
         <f>IF((B11=""),"",VLOOKUP(B11,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Amendment Request from EA process</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -9943,13 +10017,13 @@
         <v>End of Amendment Procedures PHASE, start of Amendment Application Development (Proponent Time) PHASE</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -9967,13 +10041,13 @@
         <v>Initial Review of "Draft" Amendment Application is POSITIVE</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>247</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -9991,13 +10065,13 @@
         <v>Initial Review of "Draft" Amendment Application is NEGATIVE</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>230</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -10015,13 +10089,13 @@
         <v>Initial Review of "Draft" Amendment Application is NEGATIVE</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="G15" s="3">
         <v>14</v>
@@ -10038,14 +10112,14 @@
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Dispute Resolution is started</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -10062,14 +10136,14 @@
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
@@ -10087,13 +10161,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>200</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G18" s="3">
         <v>17</v>
@@ -10110,14 +10184,14 @@
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>205</v>
+      <c r="D19" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G19" s="3">
         <v>18</v>
@@ -10134,14 +10208,14 @@
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G20" s="3">
         <v>19</v>
@@ -10159,13 +10233,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G21" s="3">
         <v>20</v>
@@ -10182,14 +10256,14 @@
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G22" s="3">
         <v>21</v>
@@ -10206,14 +10280,14 @@
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Starts the "clock" for Amendment</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>213</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="G23" s="3">
         <v>22</v>
@@ -10230,14 +10304,14 @@
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>ADM, EA Operations is delegated to make the final Amendment Decision</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>217</v>
+      <c r="D24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="G24" s="3">
         <v>23</v>
@@ -10254,14 +10328,14 @@
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>CEAO is delegated to make the final Amendment Decision</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>216</v>
+      <c r="D25" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="G25" s="3">
         <v>24</v>
@@ -10278,14 +10352,14 @@
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Minister is delegated to make the final Amendment Decision</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>215</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
       <c r="G26" s="3">
         <v>25</v>
@@ -10302,14 +10376,14 @@
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Dispute Resolution is started</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
@@ -10326,14 +10400,14 @@
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G28" s="3">
         <v>27</v>
@@ -10351,13 +10425,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D29" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>200</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G29" s="3">
         <v>28</v>
@@ -10374,14 +10448,14 @@
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>205</v>
+      <c r="D30" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G30" s="3">
         <v>29</v>
@@ -10398,14 +10472,14 @@
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G31" s="3">
         <v>30</v>
@@ -10423,13 +10497,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D32" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G32" s="3">
         <v>31</v>
@@ -10446,14 +10520,14 @@
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G33" s="3">
         <v>32</v>
@@ -10470,14 +10544,14 @@
         <f>IF((B34=""),"",VLOOKUP(B34,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is determined to be "Simple"</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>197</v>
+      <c r="D34" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="G34" s="3">
         <v>33</v>
@@ -10494,14 +10568,14 @@
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is determined to be "Simple"</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>197</v>
+      <c r="D35" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
@@ -10519,13 +10593,13 @@
         <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
@@ -10543,13 +10617,13 @@
         <v>Amendment is determined to be "Typical"</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
@@ -10566,14 +10640,14 @@
         <f>IF((B38=""),"",VLOOKUP(B38,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is determined to be "Complex"</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>197</v>
+      <c r="D38" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="G38" s="3">
         <v>37</v>
@@ -10590,14 +10664,14 @@
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is determined to be "Complex"</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>197</v>
+      <c r="D39" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>249</v>
       </c>
       <c r="G39" s="3">
         <v>38</v>
@@ -10615,13 +10689,13 @@
         <v>Amendment is determined to be "Complex"</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="G40" s="3">
         <v>39</v>
@@ -10638,14 +10712,14 @@
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Dispute Resolution is started</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G41" s="3">
         <v>40</v>
@@ -10662,14 +10736,14 @@
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G42" s="3">
         <v>41</v>
@@ -10687,13 +10761,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="30" t="s">
-        <v>200</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G43" s="3">
         <v>42</v>
@@ -10710,14 +10784,14 @@
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>205</v>
+      <c r="D44" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G44" s="3">
         <v>43</v>
@@ -10734,14 +10808,14 @@
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G45" s="3">
         <v>44</v>
@@ -10759,13 +10833,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D46" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G46" s="3">
         <v>45</v>
@@ -10782,14 +10856,14 @@
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G47" s="3">
         <v>46</v>
@@ -10806,14 +10880,14 @@
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Dispute Resolution is started</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G48" s="3">
         <v>47</v>
@@ -10830,14 +10904,14 @@
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G49" s="3">
         <v>48</v>
@@ -10855,13 +10929,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>200</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G50" s="3">
         <v>49</v>
@@ -10878,14 +10952,14 @@
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>205</v>
+      <c r="D51" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G51" s="3">
         <v>50</v>
@@ -10902,14 +10976,14 @@
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G52" s="3">
         <v>51</v>
@@ -10927,13 +11001,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G53" s="3">
         <v>52</v>
@@ -10950,14 +11024,14 @@
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G54" s="3">
         <v>53</v>
@@ -10974,14 +11048,14 @@
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Dispute Resolution is started</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="30" t="s">
-        <v>204</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="G55" s="3">
         <v>54</v>
@@ -10998,14 +11072,14 @@
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>198</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G56" s="3">
         <v>55</v>
@@ -11023,13 +11097,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>200</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G57" s="3">
         <v>56</v>
@@ -11046,14 +11120,14 @@
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D58" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>205</v>
+      <c r="D58" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="G58" s="3">
         <v>57</v>
@@ -11070,14 +11144,14 @@
         <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G59" s="3">
         <v>58</v>
@@ -11095,13 +11169,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D60" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G60" s="3">
         <v>59</v>
@@ -11118,14 +11192,14 @@
         <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G61" s="3">
         <v>60</v>
@@ -11142,14 +11216,14 @@
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="G62" s="3">
         <v>61</v>
@@ -11167,13 +11241,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D63" t="s">
+        <v>198</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="G63" s="3">
         <v>62</v>
@@ -11190,14 +11264,14 @@
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G64" s="3">
         <v>63</v>
@@ -11214,14 +11288,14 @@
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Decision Maker Amends the EAC/Exemption Order</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>201</v>
+      <c r="D65" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="G65" s="3">
         <v>64</v>
@@ -11238,14 +11312,14 @@
         <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Decision Maker Refuses to Amend the EAC/Exemption Order</v>
       </c>
-      <c r="D66" s="30" t="s">
-        <v>201</v>
+      <c r="D66" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="G66" s="3">
         <v>65</v>
@@ -11336,11 +11410,11 @@
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -11397,7 +11471,7 @@
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>34</v>
@@ -11409,7 +11483,7 @@
         <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S3" s="2" t="b">
         <v>1</v>
@@ -11429,7 +11503,7 @@
         <v>34</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>35</v>
@@ -11441,7 +11515,7 @@
         <v>53</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S4" s="2" t="b">
         <v>0</v>
@@ -11458,7 +11532,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>36</v>
@@ -11467,7 +11541,7 @@
         <v>50</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
@@ -11478,7 +11552,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>37</v>
@@ -11489,13 +11563,13 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>38</v>
@@ -11512,7 +11586,7 @@
         <v>34</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>39</v>
@@ -11523,13 +11597,13 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>40</v>
@@ -11546,7 +11620,7 @@
         <v>34</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>51</v>
@@ -11572,7 +11646,7 @@
         <v>34</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O12" s="9"/>
     </row>
@@ -11584,7 +11658,7 @@
         <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O13" s="9"/>
     </row>
@@ -11596,7 +11670,7 @@
         <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O14" s="9"/>
     </row>
@@ -11608,7 +11682,7 @@
         <v>40</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O15" s="9"/>
     </row>
@@ -11620,7 +11694,7 @@
         <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.3">
@@ -11628,7 +11702,7 @@
         <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
@@ -11636,7 +11710,7 @@
         <v>36</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
@@ -11644,7 +11718,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.3">
@@ -11652,7 +11726,7 @@
         <v>36</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="8:9" x14ac:dyDescent="0.3">
@@ -11660,7 +11734,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="8:9" x14ac:dyDescent="0.3">
@@ -11668,7 +11742,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="8:9" x14ac:dyDescent="0.3">
@@ -11676,7 +11750,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="8:9" x14ac:dyDescent="0.3">
@@ -11684,7 +11758,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="8:9" x14ac:dyDescent="0.3">
@@ -11700,7 +11774,7 @@
         <v>38</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="8:9" x14ac:dyDescent="0.3">
@@ -11708,7 +11782,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="8:9" x14ac:dyDescent="0.3">
@@ -11716,7 +11790,7 @@
         <v>38</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="8:9" x14ac:dyDescent="0.3">
@@ -11732,7 +11806,7 @@
         <v>35</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="8:9" x14ac:dyDescent="0.3">
@@ -11740,7 +11814,7 @@
         <v>35</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="8:9" x14ac:dyDescent="0.3">
@@ -11748,7 +11822,7 @@
         <v>35</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.3">
@@ -11756,7 +11830,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.3">
@@ -11772,7 +11846,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.3">
@@ -11780,7 +11854,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.3">
@@ -11788,7 +11862,7 @@
         <v>37</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.3">
@@ -11796,7 +11870,7 @@
         <v>37</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.3">

--- a/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\amendment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912A6F8C-567D-4227-9095-315B48FE754A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B63CD0-BE2E-4717-B9E1-C8A735F279F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -939,18 +939,12 @@
     <t>[{"phase_name":"Amendment Application Review (Typical)","work_type_id":7,"ea_act_id":3,"is_active":false}]</t>
   </si>
   <si>
-    <t>{"phase_name":"Amendment Application Review (Simple)","work_type_id": 7, "ea_act_id": 3, "new_name": "Amendment Application Review (Simple)", "legislated": false }</t>
-  </si>
-  <si>
     <t>{"phase_name":"Amendment Application Review (Simple)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Simple) (Date Capture)", "start_at": 1 }</t>
   </si>
   <si>
     <t>{"phase_name":"Amendment Application Review (Typical)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Typical) (Date Capture)", "start_at": 1 }</t>
   </si>
   <si>
-    <t>{"phase_name":"Amendment Application Review (Complex)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Complex) (Date Capture)", "start_at": 1 }</t>
-  </si>
-  <si>
     <t>Amendment</t>
   </si>
   <si>
@@ -963,10 +957,16 @@
     <t>AddPhase</t>
   </si>
   <si>
-    <t>{"phase_name":"Amendment Application Review (Complex)","work_type_id":7,"ea_act_id":3, "new_name": "Amendment Application Review (Complex)", "legislated": false}</t>
-  </si>
-  <si>
     <t>{"work_type":15}</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Amendment Application Review (Complex)","work_type_id":7,"ea_act_id":3, "new_name": "Revised Amendment Application Review (Complex)", "legislated": false}]</t>
+  </si>
+  <si>
+    <t>{"phase_name":"Revised Amendment Application Review (Complex)","work_type_id": 7, "ea_act_id": 3, "event_name": "Start of Amendment Application Review (Complex) (Date Capture)", "start_at": 1 }</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Amendment Application Review (Simple)","work_type_id": 7, "ea_act_id": 3, "new_name": "Amendment Application Review (Simple)", "legislated": false }]</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1668,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1697,7 +1697,7 @@
         <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1726,7 +1726,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1755,7 +1755,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1784,7 +1784,7 @@
         <v>111</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1813,7 +1813,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1842,7 +1842,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -1871,7 +1871,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
@@ -9727,7 +9727,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9855,7 +9855,7 @@
         <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -10023,7 +10023,7 @@
         <v>206</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -10047,7 +10047,7 @@
         <v>208</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -10119,7 +10119,7 @@
         <v>203</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G16" s="3">
         <v>15</v>
@@ -10383,7 +10383,7 @@
         <v>203</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G27" s="3">
         <v>26</v>
@@ -10569,13 +10569,13 @@
         <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G35" s="3">
         <v>34</v>
@@ -10599,7 +10599,7 @@
         <v>221</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G36" s="3">
         <v>35</v>
@@ -10623,7 +10623,7 @@
         <v>220</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G37" s="3">
         <v>36</v>
@@ -10665,13 +10665,13 @@
         <v>Amendment is determined to be "Complex"</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G39" s="3">
         <v>38</v>
@@ -10695,7 +10695,7 @@
         <v>222</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G40" s="3">
         <v>39</v>
@@ -10719,7 +10719,7 @@
         <v>203</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G41" s="3">
         <v>40</v>
@@ -10887,7 +10887,7 @@
         <v>203</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G48" s="3">
         <v>47</v>
@@ -11055,7 +11055,7 @@
         <v>203</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G55" s="3">
         <v>54</v>

--- a/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\amendment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B63CD0-BE2E-4717-B9E1-C8A735F279F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD980EA4-B3C4-42B1-8728-5EDE39A9633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="249">
   <si>
     <t>No</t>
   </si>
@@ -843,12 +843,6 @@
     <t>Set ANTICIPATED of "Amendment Application Submission | Amendment Application Received" to thisEventACTUAL +1</t>
   </si>
   <si>
-    <t>Add a copy of "Amendment Application Development (Proponent Time) | Submission of "Draft" Amendment Application" to thisPhase at thisEventACTUAL +28</t>
-  </si>
-  <si>
-    <t>Add a copy of "Amendment Application Development (Proponent Time) | "Draft" Amendment Application Initial Review" to thisPhase at thisEventACTUAL +38</t>
-  </si>
-  <si>
     <t>LockWorkStartDate</t>
   </si>
   <si>
@@ -906,12 +900,6 @@
     <t>{"work_state": "TERMINATED"}</t>
   </si>
   <si>
-    <t>{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Amendment Application", "start_at": 28 }</t>
-  </si>
-  <si>
-    <t>{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "\"Draft\" Amendment Application Initial Review", "start_at": 38 }</t>
-  </si>
-  <si>
     <t>{"start_date_locked": true}</t>
   </si>
   <si>
@@ -967,6 +955,12 @@
   </si>
   <si>
     <t>[{"phase_name":"Amendment Application Review (Simple)","work_type_id": 7, "ea_act_id": 3, "new_name": "Amendment Application Review (Simple)", "legislated": false }]</t>
+  </si>
+  <si>
+    <t>[{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "Submission of \"Draft\" Amendment Application", "start_at": 28 },{"phase_name":"Amendment Application Development (Proponent Time)","work_type_id": 7, "ea_act_id": 3, "event_name": "\"Draft\" Amendment Application Initial Review", "start_at": 10}]</t>
+  </si>
+  <si>
+    <t>Add a copy of "Amendment Application Development (Proponent Time) | Submission of "Draft" Amendment Application, "Draft" Amendment Application Initial Review" to thisPhase at thisEventACTUAL +28</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -1668,7 +1662,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -1683,7 +1677,7 @@
         <v>65</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1697,7 +1691,7 @@
         <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -1712,7 +1706,7 @@
         <v>65</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -1726,7 +1720,7 @@
         <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -1741,7 +1735,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -1755,7 +1749,7 @@
         <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -1770,7 +1764,7 @@
         <v>65</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I5" s="3">
         <v>4</v>
@@ -1784,7 +1778,7 @@
         <v>111</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -1799,7 +1793,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I6" s="3">
         <v>5</v>
@@ -1813,7 +1807,7 @@
         <v>112</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -1828,7 +1822,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I7" s="3">
         <v>6</v>
@@ -1842,7 +1836,7 @@
         <v>113</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -1857,7 +1851,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -1871,7 +1865,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
@@ -1886,7 +1880,7 @@
         <v>65</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
@@ -2584,7 +2578,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -2623,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M2" s="3">
         <v>1</v>
@@ -2662,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -2701,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
@@ -2740,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M5" s="3">
         <v>4</v>
@@ -2779,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M6" s="3">
         <v>5</v>
@@ -2818,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
@@ -2857,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2896,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M9" s="3">
         <v>8</v>
@@ -2935,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M10" s="3">
         <v>9</v>
@@ -2974,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M11" s="3">
         <v>10</v>
@@ -3013,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -3052,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M13" s="3">
         <v>12</v>
@@ -3091,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M14" s="3">
         <v>13</v>
@@ -3130,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M15" s="3">
         <v>14</v>
@@ -3172,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M16" s="3">
         <v>15</v>
@@ -3214,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M17" s="3">
         <v>16</v>
@@ -3253,7 +3247,7 @@
         <v>30</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M18" s="3">
         <v>17</v>
@@ -3295,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M19" s="3">
         <v>18</v>
@@ -3337,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M20" s="3">
         <v>19</v>
@@ -3379,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M21" s="3">
         <v>20</v>
@@ -3421,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M22" s="3">
         <v>21</v>
@@ -3460,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M23" s="3">
         <v>22</v>
@@ -3499,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M24" s="3">
         <v>23</v>
@@ -3538,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M25" s="3">
         <v>24</v>
@@ -3580,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M26" s="3">
         <v>25</v>
@@ -3622,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M27" s="3">
         <v>26</v>
@@ -3661,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M28" s="3">
         <v>27</v>
@@ -3703,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M29" s="3">
         <v>28</v>
@@ -3745,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M30" s="3">
         <v>29</v>
@@ -3784,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M31" s="3">
         <v>30</v>
@@ -3826,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M32" s="3">
         <v>31</v>
@@ -3868,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M33" s="3">
         <v>32</v>
@@ -3907,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M34" s="3">
         <v>33</v>
@@ -3946,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M35" s="3">
         <v>34</v>
@@ -3988,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M36" s="3">
         <v>35</v>
@@ -4030,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M37" s="3">
         <v>36</v>
@@ -4069,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M38" s="3">
         <v>37</v>
@@ -4108,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M39" s="3">
         <v>38</v>
@@ -4147,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M40" s="3">
         <v>39</v>
@@ -4186,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M41" s="3">
         <v>40</v>
@@ -4225,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M42" s="3">
         <v>41</v>
@@ -4264,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M43" s="3">
         <v>42</v>
@@ -4303,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M44" s="3">
         <v>43</v>
@@ -4345,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M45" s="3">
         <v>44</v>
@@ -4387,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M46" s="3">
         <v>45</v>
@@ -4426,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M47" s="3">
         <v>46</v>
@@ -4468,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M48" s="3">
         <v>47</v>
@@ -4510,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M49" s="3">
         <v>48</v>
@@ -4549,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M50" s="3">
         <v>49</v>
@@ -4591,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M51" s="3">
         <v>50</v>
@@ -4633,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M52" s="3">
         <v>51</v>
@@ -4672,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M53" s="3">
         <v>52</v>
@@ -4711,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M54" s="3">
         <v>53</v>
@@ -4750,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M55" s="3">
         <v>54</v>
@@ -4792,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M56" s="3">
         <v>55</v>
@@ -4834,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M57" s="3">
         <v>56</v>
@@ -4873,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M58" s="3">
         <v>57</v>
@@ -4912,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M59" s="3">
         <v>58</v>
@@ -4954,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M60" s="3">
         <v>59</v>
@@ -4993,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M61" s="3">
         <v>60</v>
@@ -5032,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M62" s="3">
         <v>61</v>
@@ -5071,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M63" s="3">
         <v>62</v>
@@ -5113,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M64" s="3">
         <v>63</v>
@@ -5155,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M65" s="3">
         <v>64</v>
@@ -5194,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M66" s="3">
         <v>65</v>
@@ -5236,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M67" s="3">
         <v>66</v>
@@ -5278,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M68" s="3">
         <v>67</v>
@@ -5317,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M69" s="3">
         <v>68</v>
@@ -5359,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M70" s="3">
         <v>69</v>
@@ -5401,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M71" s="3">
         <v>70</v>
@@ -5440,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M72" s="3">
         <v>71</v>
@@ -5479,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M73" s="3">
         <v>72</v>
@@ -5518,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M74" s="3">
         <v>73</v>
@@ -5557,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M75" s="3">
         <v>74</v>
@@ -5596,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M76" s="3">
         <v>75</v>
@@ -5635,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M77" s="3">
         <v>76</v>
@@ -5674,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M78" s="3">
         <v>77</v>
@@ -5716,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M79" s="3">
         <v>78</v>
@@ -5758,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M80" s="3">
         <v>79</v>
@@ -5797,7 +5791,7 @@
         <v>30</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M81" s="3">
         <v>80</v>
@@ -5839,7 +5833,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M82" s="3">
         <v>81</v>
@@ -5881,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M83" s="3">
         <v>82</v>
@@ -5923,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M84" s="3">
         <v>83</v>
@@ -5965,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M85" s="3">
         <v>84</v>
@@ -6004,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M86" s="3">
         <v>85</v>
@@ -6043,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M87" s="3">
         <v>86</v>
@@ -6082,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M88" s="3">
         <v>87</v>
@@ -6124,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M89" s="3">
         <v>88</v>
@@ -6166,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M90" s="3">
         <v>89</v>
@@ -6205,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M91" s="3">
         <v>90</v>
@@ -6247,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M92" s="3">
         <v>91</v>
@@ -6289,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M93" s="3">
         <v>92</v>
@@ -6328,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M94" s="3">
         <v>93</v>
@@ -6370,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M95" s="3">
         <v>94</v>
@@ -6412,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M96" s="3">
         <v>95</v>
@@ -6451,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M97" s="3">
         <v>96</v>
@@ -6490,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M98" s="3">
         <v>97</v>
@@ -6529,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M99" s="3">
         <v>98</v>
@@ -6568,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M100" s="3">
         <v>99</v>
@@ -6607,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
@@ -6646,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M102" s="3">
         <v>101</v>
@@ -6685,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M103" s="3">
         <v>102</v>
@@ -6724,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M104" s="3">
         <v>103</v>
@@ -6766,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M105" s="3">
         <v>104</v>
@@ -6808,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M106" s="3">
         <v>105</v>
@@ -6847,7 +6841,7 @@
         <v>30</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M107" s="3">
         <v>106</v>
@@ -6889,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M108" s="3">
         <v>107</v>
@@ -6931,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M109" s="3">
         <v>108</v>
@@ -6973,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M110" s="3">
         <v>109</v>
@@ -7015,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M111" s="3">
         <v>110</v>
@@ -7054,7 +7048,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M112" s="3">
         <v>111</v>
@@ -7093,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M113" s="3">
         <v>112</v>
@@ -7132,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M114" s="3">
         <v>113</v>
@@ -7174,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M115" s="3">
         <v>114</v>
@@ -7216,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M116" s="3">
         <v>115</v>
@@ -7255,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M117" s="3">
         <v>116</v>
@@ -7297,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M118" s="3">
         <v>117</v>
@@ -7339,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M119" s="3">
         <v>118</v>
@@ -7378,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M120" s="3">
         <v>119</v>
@@ -7420,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M121" s="3">
         <v>120</v>
@@ -7462,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M122" s="3">
         <v>121</v>
@@ -7501,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M123" s="3">
         <v>122</v>
@@ -7540,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M124" s="3">
         <v>123</v>
@@ -7579,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M125" s="3">
         <v>124</v>
@@ -7618,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M126" s="3">
         <v>125</v>
@@ -7657,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M127" s="3">
         <v>126</v>
@@ -7696,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M128" s="3">
         <v>127</v>
@@ -7735,7 +7729,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M129" s="3">
         <v>128</v>
@@ -7774,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M130" s="3">
         <v>129</v>
@@ -7816,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M131" s="3">
         <v>130</v>
@@ -7858,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M132" s="3">
         <v>131</v>
@@ -7897,7 +7891,7 @@
         <v>30</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M133" s="3">
         <v>132</v>
@@ -7939,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M134" s="3">
         <v>133</v>
@@ -7981,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M135" s="3">
         <v>134</v>
@@ -8023,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M136" s="3">
         <v>135</v>
@@ -8065,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M137" s="3">
         <v>136</v>
@@ -8104,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M138" s="3">
         <v>137</v>
@@ -8143,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M139" s="3">
         <v>138</v>
@@ -8182,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M140" s="3">
         <v>139</v>
@@ -8224,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M141" s="3">
         <v>140</v>
@@ -8266,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M142" s="3">
         <v>141</v>
@@ -8305,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M143" s="3">
         <v>142</v>
@@ -8347,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M144" s="3">
         <v>143</v>
@@ -8389,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M145" s="3">
         <v>144</v>
@@ -8428,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M146" s="3">
         <v>145</v>
@@ -8470,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M147" s="3">
         <v>146</v>
@@ -8512,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M148" s="3">
         <v>147</v>
@@ -8551,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M149" s="3">
         <v>148</v>
@@ -8590,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M150" s="3">
         <v>149</v>
@@ -8629,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M151" s="3">
         <v>150</v>
@@ -8668,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M152" s="3">
         <v>151</v>
@@ -8710,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M153" s="3">
         <v>152</v>
@@ -8749,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M154" s="3">
         <v>153</v>
@@ -8788,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M155" s="3">
         <v>154</v>
@@ -8830,7 +8824,7 @@
         <v>0</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M156" s="3">
         <v>155</v>
@@ -8872,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M157" s="3">
         <v>156</v>
@@ -8911,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M158" s="3">
         <v>157</v>
@@ -8950,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="L159" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M159" s="3">
         <v>158</v>
@@ -8992,7 +8986,7 @@
         <v>0</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M160" s="3">
         <v>159</v>
@@ -9034,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M161" s="3">
         <v>160</v>
@@ -9721,13 +9715,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9783,7 +9777,7 @@
         <v>197</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -9807,7 +9801,7 @@
         <v>199</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -9831,7 +9825,7 @@
         <v>201</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -9855,7 +9849,7 @@
         <v>203</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G5" s="3">
         <v>4</v>
@@ -9879,7 +9873,7 @@
         <v>197</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G6" s="3">
         <v>5</v>
@@ -9903,7 +9897,7 @@
         <v>199</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
@@ -9927,7 +9921,7 @@
         <v>204</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G8" s="3">
         <v>7</v>
@@ -9951,7 +9945,7 @@
         <v>197</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G9" s="3">
         <v>8</v>
@@ -9975,7 +9969,7 @@
         <v>199</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G10" s="3">
         <v>9</v>
@@ -9999,7 +9993,7 @@
         <v>201</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G11" s="3">
         <v>10</v>
@@ -10023,7 +10017,7 @@
         <v>206</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G12" s="3">
         <v>11</v>
@@ -10047,7 +10041,7 @@
         <v>208</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G13" s="3">
         <v>12</v>
@@ -10068,10 +10062,10 @@
         <v>207</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="G14" s="3">
         <v>13</v>
@@ -10079,55 +10073,55 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IF((B15=""),"",VLOOKUP(B15,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Initial Review of "Draft" Amendment Application is NEGATIVE</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G15" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IF((B16=""),"",VLOOKUP(B16,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G16" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="8">
         <v>9</v>
@@ -10136,22 +10130,22 @@
         <f>IF((B17=""),"",VLOOKUP(B17,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>196</v>
+      <c r="D17" t="s">
+        <v>198</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G17" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
         <v>9</v>
@@ -10160,46 +10154,46 @@
         <f>IF((B18=""),"",VLOOKUP(B18,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D18" t="s">
-        <v>198</v>
+      <c r="D18" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G18" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="6" t="str">
         <f>IF((B19=""),"",VLOOKUP(B19,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is Terminated under s.39(d) of Act</v>
+        <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G19" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="8">
         <v>10</v>
@@ -10208,22 +10202,22 @@
         <f>IF((B20=""),"",VLOOKUP(B20,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>196</v>
+      <c r="D20" t="s">
+        <v>198</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G20" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="8">
         <v>10</v>
@@ -10232,166 +10226,166 @@
         <f>IF((B21=""),"",VLOOKUP(B21,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D21" t="s">
-        <v>198</v>
+      <c r="D21" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G21" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IF((B22=""),"",VLOOKUP(B22,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Holder withdraws Application from Amendment process</v>
+        <v>Starts the "clock" for Amendment</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>210</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>228</v>
       </c>
       <c r="G22" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IF((B23=""),"",VLOOKUP(B23,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Starts the "clock" for Amendment</v>
+        <v>ADM, EA Operations is delegated to make the final Amendment Decision</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>211</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G23" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IF((B24=""),"",VLOOKUP(B24,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>ADM, EA Operations is delegated to make the final Amendment Decision</v>
+        <v>CEAO is delegated to make the final Amendment Decision</v>
       </c>
       <c r="D24" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>216</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="6" t="str">
         <f>IF((B25=""),"",VLOOKUP(B25,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>CEAO is delegated to make the final Amendment Decision</v>
+        <v>Minister is delegated to make the final Amendment Decision</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IF((B26=""),"",VLOOKUP(B26,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Minister is delegated to make the final Amendment Decision</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G26" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IF((B27=""),"",VLOOKUP(B27,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G27" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8">
         <v>16</v>
@@ -10400,22 +10394,22 @@
         <f>IF((B28=""),"",VLOOKUP(B28,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>196</v>
+      <c r="D28" t="s">
+        <v>198</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G28" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8">
         <v>16</v>
@@ -10424,46 +10418,46 @@
         <f>IF((B29=""),"",VLOOKUP(B29,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D29" t="s">
-        <v>198</v>
+      <c r="D29" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G29" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IF((B30=""),"",VLOOKUP(B30,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is Terminated under s.39(d) of Act</v>
+        <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G30" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="8">
         <v>17</v>
@@ -10472,22 +10466,22 @@
         <f>IF((B31=""),"",VLOOKUP(B31,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>196</v>
+      <c r="D31" t="s">
+        <v>198</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G31" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="8">
         <v>17</v>
@@ -10496,46 +10490,46 @@
         <f>IF((B32=""),"",VLOOKUP(B32,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D32" t="s">
-        <v>198</v>
+      <c r="D32" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IF((B33=""),"",VLOOKUP(B33,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Holder withdraws Application from Amendment process</v>
+        <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G33" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>18</v>
@@ -10545,21 +10539,21 @@
         <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G34" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="8">
         <v>18</v>
@@ -10568,70 +10562,70 @@
         <f>IF((B35=""),"",VLOOKUP(B35,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is determined to be "Simple"</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>246</v>
+      <c r="D35" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="G35" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>IF((B36=""),"",VLOOKUP(B36,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is determined to be "Simple"</v>
+        <v>Amendment is determined to be "Typical"</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G36" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" s="6" t="str">
         <f>IF((B37=""),"",VLOOKUP(B37,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is determined to be "Typical"</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>205</v>
+        <v>Amendment is determined to be "Complex"</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G37" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8">
         <v>20</v>
@@ -10641,21 +10635,21 @@
         <v>Amendment is determined to be "Complex"</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="8">
         <v>20</v>
@@ -10664,70 +10658,70 @@
         <f>IF((B39=""),"",VLOOKUP(B39,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is determined to be "Complex"</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>246</v>
+      <c r="D39" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="6" t="str">
         <f>IF((B40=""),"",VLOOKUP(B40,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is determined to be "Complex"</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>222</v>
+        <v>Dispute Resolution is started</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G40" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>IF((B41=""),"",VLOOKUP(B41,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="8">
         <v>22</v>
@@ -10736,22 +10730,22 @@
         <f>IF((B42=""),"",VLOOKUP(B42,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>196</v>
+      <c r="D42" t="s">
+        <v>198</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="8">
         <v>22</v>
@@ -10760,46 +10754,46 @@
         <f>IF((B43=""),"",VLOOKUP(B43,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D43" t="s">
-        <v>198</v>
+      <c r="D43" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C44" s="6" t="str">
         <f>IF((B44=""),"",VLOOKUP(B44,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is Terminated under s.39(d) of Act</v>
+        <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="8">
         <v>23</v>
@@ -10808,22 +10802,22 @@
         <f>IF((B45=""),"",VLOOKUP(B45,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>196</v>
+      <c r="D45" t="s">
+        <v>198</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="8">
         <v>23</v>
@@ -10832,70 +10826,70 @@
         <f>IF((B46=""),"",VLOOKUP(B46,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D46" t="s">
-        <v>198</v>
+      <c r="D46" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IF((B47=""),"",VLOOKUP(B47,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Holder withdraws Application from Amendment process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>IF((B48=""),"",VLOOKUP(B48,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="8">
         <v>25</v>
@@ -10904,22 +10898,22 @@
         <f>IF((B49=""),"",VLOOKUP(B49,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>196</v>
+      <c r="D49" t="s">
+        <v>198</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="8">
         <v>25</v>
@@ -10928,46 +10922,46 @@
         <f>IF((B50=""),"",VLOOKUP(B50,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D50" t="s">
-        <v>198</v>
+      <c r="D50" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>IF((B51=""),"",VLOOKUP(B51,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is Terminated under s.39(d) of Act</v>
+        <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="8">
         <v>26</v>
@@ -10976,22 +10970,22 @@
         <f>IF((B52=""),"",VLOOKUP(B52,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>196</v>
+      <c r="D52" t="s">
+        <v>198</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="8">
         <v>26</v>
@@ -11000,70 +10994,70 @@
         <f>IF((B53=""),"",VLOOKUP(B53,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D53" t="s">
-        <v>198</v>
+      <c r="D53" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IF((B54=""),"",VLOOKUP(B54,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Holder withdraws Application from Amendment process</v>
+        <v>Dispute Resolution is started</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>203</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>IF((B55=""),"",VLOOKUP(B55,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Dispute Resolution is started</v>
+        <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="G55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="8">
         <v>28</v>
@@ -11072,22 +11066,22 @@
         <f>IF((B56=""),"",VLOOKUP(B56,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>196</v>
+      <c r="D56" t="s">
+        <v>198</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="8">
         <v>28</v>
@@ -11096,46 +11090,46 @@
         <f>IF((B57=""),"",VLOOKUP(B57,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
-      <c r="D57" t="s">
-        <v>198</v>
+      <c r="D57" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" s="6" t="str">
         <f>IF((B58=""),"",VLOOKUP(B58,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Amendment is Terminated under s.39(d) of Act</v>
+        <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="8">
         <v>29</v>
@@ -11144,22 +11138,22 @@
         <f>IF((B59=""),"",VLOOKUP(B59,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>196</v>
+      <c r="D59" t="s">
+        <v>198</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="8">
         <v>29</v>
@@ -11168,46 +11162,46 @@
         <f>IF((B60=""),"",VLOOKUP(B60,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D60" t="s">
-        <v>198</v>
+      <c r="D60" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" s="6" t="str">
         <f>IF((B61=""),"",VLOOKUP(B61,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="8">
         <v>30</v>
@@ -11216,22 +11210,22 @@
         <f>IF((B62=""),"",VLOOKUP(B62,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>196</v>
+      <c r="D62" t="s">
+        <v>198</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="8">
         <v>30</v>
@@ -11240,88 +11234,64 @@
         <f>IF((B63=""),"",VLOOKUP(B63,Outcomes!$A$2:$D$33,4,FALSE))</f>
         <v>Holder withdraws Application from Amendment process</v>
       </c>
-      <c r="D63" t="s">
-        <v>198</v>
+      <c r="D63" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="G63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C64" s="6" t="str">
         <f>IF((B64=""),"",VLOOKUP(B64,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Holder withdraws Application from Amendment process</v>
+        <v>Decision Maker Amends the EAC/Exemption Order</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>200</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" s="6" t="str">
         <f>IF((B65=""),"",VLOOKUP(B65,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Decision Maker Amends the EAC/Exemption Order</v>
+        <v>Decision Maker Refuses to Amend the EAC/Exemption Order</v>
       </c>
       <c r="D65" s="26" t="s">
         <v>200</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G65" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="8">
-        <v>32</v>
-      </c>
-      <c r="C66" s="6" t="str">
-        <f>IF((B66=""),"",VLOOKUP(B66,Outcomes!$A$2:$D$33,4,FALSE))</f>
-        <v>Decision Maker Refuses to Amend the EAC/Exemption Order</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G66" s="3">
         <v>65</v>
       </c>
     </row>
@@ -11334,7 +11304,7 @@
           <x14:formula1>
             <xm:f>Outcomes!$A$2:$A$33</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B66</xm:sqref>
+          <xm:sqref>B2:B65</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\eao\beta\code\epictrack-api\src\api\templates\event_templates\amendment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\epic\track\code\epictrack-api\src\api\templates\event_templates\amendment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD980EA4-B3C4-42B1-8728-5EDE39A9633A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B9FD62-E0A7-4FB1-9CD5-44D68F667280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{296960FE-C65C-4E22-ABB9-815D3FEB7325}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Actions" sheetId="6" r:id="rId5"/>
     <sheet name="Lookups" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Actions!$A$1:$G$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1545,55 +1548,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B2" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B8" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B12" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>64</v>
       </c>
@@ -1614,18 +1617,18 @@
       <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.77734375" style="2" customWidth="1"/>
-    <col min="6" max="8" width="12.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.81640625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="12.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.81640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1886,607 +1889,607 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B38"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B39"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B40"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B41"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B42"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B43"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B44"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B45"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B46"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B47"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B48"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B118"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B143"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B148"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B149"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B150"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B151"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B152"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B153"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B154"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B155"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B156"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B157"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B158"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B159"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B160"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B165"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B166"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B167"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B168"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B169"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B170"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B171"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B172"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B173"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B174"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B175"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B176"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B177"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B178"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B179"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B180"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B181"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B182"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B183"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B184"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B185"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B186"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B187"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B188"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B189"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B190"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B191"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B192"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B193"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B194"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B195"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B196"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B197"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B198"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B199"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B200"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B201"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B202"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B203"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B204"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B205"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B206"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B207"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B208"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B209"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B210"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B211"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B212"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B213"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B214"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B215"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B216"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B217"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B218"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B219"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B220"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B221"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B222"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B223"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B224"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B225"/>
     </row>
   </sheetData>
@@ -2529,21 +2532,21 @@
       <selection pane="bottomRight" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="10.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="70.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="14.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="14.77734375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.81640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="10.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="70.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="14.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="14.81640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3013,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3421,7 +3424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3538,7 +3541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4147,7 +4150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5440,7 +5443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -6328,7 +6331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -6568,7 +6571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -6607,7 +6610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -6646,7 +6649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -6931,7 +6934,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7054,7 +7057,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -7339,7 +7342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -7462,7 +7465,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -7501,7 +7504,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -7579,7 +7582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -7816,7 +7819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -7981,7 +7984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -8104,7 +8107,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -8266,7 +8269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -8551,7 +8554,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -8629,7 +8632,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -8710,7 +8713,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -8950,7 +8953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -9094,16 +9097,16 @@
       <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="70.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="70.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9120,7 +9123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -9318,7 +9321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -9408,7 +9411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -9444,7 +9447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -9462,7 +9465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -9498,7 +9501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -9642,7 +9645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -9718,25 +9721,25 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="2"/>
+    <col min="2" max="2" width="12.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="170" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="20.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9807,7 +9810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10023,7 +10026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10047,7 +10050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10071,7 +10074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -10119,7 +10122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -10143,7 +10146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -10263,7 +10266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -10359,7 +10362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -10383,7 +10386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -10407,7 +10410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -10527,7 +10530,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -10551,7 +10554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -10647,7 +10650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -10719,7 +10722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -10767,7 +10770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -10791,7 +10794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>46</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -10911,7 +10914,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>54</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>55</v>
       </c>
@@ -11055,7 +11058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>56</v>
       </c>
@@ -11079,7 +11082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>57</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>58</v>
       </c>
@@ -11127,7 +11130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>59</v>
       </c>
@@ -11151,7 +11154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>60</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>61</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>62</v>
       </c>
@@ -11223,7 +11226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>63</v>
       </c>
@@ -11247,7 +11250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>64</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -11296,6 +11299,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G65" xr:uid="{A2A29F23-3414-4C7A-B10C-DD605B945639}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -11321,34 +11325,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="3.77734375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="24.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="3.77734375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="3.77734375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.77734375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="30.77734375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" style="4" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="4" customWidth="1"/>
-    <col min="18" max="18" width="3.77734375" style="4" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" style="4" customWidth="1"/>
-    <col min="20" max="58" width="3.77734375" style="4" customWidth="1"/>
-    <col min="59" max="59" width="8.88671875" style="4"/>
-    <col min="60" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.81640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.81640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="3.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.81640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="30.81640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="3.81640625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="3.81640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" style="4" customWidth="1"/>
+    <col min="20" max="58" width="3.81640625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="8.90625" style="4"/>
+    <col min="60" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:59" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -11427,7 +11431,7 @@
       <c r="BF2" s="5"/>
       <c r="BG2" s="5"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -11459,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -11491,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -11514,7 +11518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -11531,7 +11535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>104</v>
       </c>
@@ -11548,7 +11552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>105</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -11596,7 +11600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -11608,7 +11612,7 @@
       </c>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -11620,7 +11624,7 @@
       </c>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
@@ -11632,7 +11636,7 @@
       </c>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
@@ -11644,7 +11648,7 @@
       </c>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -11656,7 +11660,7 @@
       </c>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -11667,7 +11671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H17" s="4" t="s">
         <v>36</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18" s="4" t="s">
         <v>36</v>
       </c>
@@ -11683,7 +11687,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H19" s="4" t="s">
         <v>36</v>
       </c>
@@ -11691,7 +11695,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H20" s="4" t="s">
         <v>36</v>
       </c>
@@ -11699,7 +11703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H21" s="4" t="s">
         <v>36</v>
       </c>
@@ -11707,7 +11711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
@@ -11715,7 +11719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H23" s="4" t="s">
         <v>36</v>
       </c>
@@ -11723,7 +11727,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H25" s="4" t="s">
         <v>36</v>
       </c>
@@ -11739,7 +11743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H26" s="4" t="s">
         <v>38</v>
       </c>
@@ -11747,7 +11751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H27" s="4" t="s">
         <v>38</v>
       </c>
@@ -11755,7 +11759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H28" s="4" t="s">
         <v>38</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H29" s="4" t="s">
         <v>38</v>
       </c>
@@ -11771,7 +11775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H30" s="4" t="s">
         <v>35</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H31" s="4" t="s">
         <v>35</v>
       </c>
@@ -11787,7 +11791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H32" s="4" t="s">
         <v>35</v>
       </c>
@@ -11795,7 +11799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H33" s="4" t="s">
         <v>35</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H34" s="4" t="s">
         <v>35</v>
       </c>
@@ -11811,7 +11815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H35" s="4" t="s">
         <v>37</v>
       </c>
@@ -11819,7 +11823,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H36" s="4" t="s">
         <v>37</v>
       </c>
@@ -11827,7 +11831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H37" s="4" t="s">
         <v>37</v>
       </c>
@@ -11835,7 +11839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H38" s="4" t="s">
         <v>37</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H39" s="4" t="s">
         <v>37</v>
       </c>

--- a/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
+++ b/epictrack-api/src/api/templates/event_templates/amendment/001_Amendment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13080" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="250">
   <si>
     <t>Cell Colors</t>
   </si>
@@ -275,7 +275,7 @@
     <t>EA Act (2018)</t>
   </si>
   <si>
-    <t>#FFFFFF</t>
+    <t>#a6bb2e</t>
   </si>
   <si>
     <t>REGULAR</t>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>Amendment Application Development (Proponent Time)</t>
+  </si>
+  <si>
+    <t>#6d7274</t>
   </si>
   <si>
     <t>Amendment Application Submission</t>
@@ -964,12 +967,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,20 +1013,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,38 +1070,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1083,7 +1087,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1099,23 +1126,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,21 +1134,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1251,7 +1247,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,7 +1283,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,13 +1313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,43 +1325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,49 +1337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,13 +1367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,13 +1391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,6 +1432,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1471,6 +1476,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,56 +1513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,148 +1532,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2197,12 +2169,12 @@
   <sheetPr/>
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
@@ -2323,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>22</v>
@@ -2337,7 +2309,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>19</v>
@@ -2366,7 +2338,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>19</v>
@@ -2384,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="6">
         <v>5</v>
@@ -2395,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>19</v>
@@ -2424,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>19</v>
@@ -2442,7 +2414,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="6">
         <v>7</v>
@@ -2453,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>19</v>
@@ -3102,12 +3074,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E166" sqref="E166"/>
+      <selection pane="bottomRight" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15"/>
@@ -3129,31 +3101,31 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>13</v>
@@ -3173,20 +3145,20 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>IF((C2=""),"",VLOOKUP(C2,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="12" t="b">
         <v>0</v>
@@ -3198,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
@@ -3212,20 +3184,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="8" t="str">
         <f>IF((C3=""),"",VLOOKUP(C3,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" s="12" t="b">
         <v>0</v>
@@ -3237,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="6">
         <v>2</v>
@@ -3251,20 +3223,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="8" t="str">
         <f>IF((C4=""),"",VLOOKUP(C4,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" s="12" t="b">
         <v>0</v>
@@ -3276,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="6">
         <v>3</v>
@@ -3290,20 +3262,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="8" t="str">
         <f>IF((C5=""),"",VLOOKUP(C5,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="12" t="b">
         <v>0</v>
@@ -3315,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="6">
         <v>4</v>
@@ -3329,20 +3301,20 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="8" t="str">
         <f>IF((C6=""),"",VLOOKUP(C6,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="12" t="b">
         <v>0</v>
@@ -3354,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="6">
         <v>5</v>
@@ -3368,20 +3340,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>IF((C7=""),"",VLOOKUP(C7,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Initial Contact</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" s="12" t="b">
         <v>0</v>
@@ -3393,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="6">
         <v>6</v>
@@ -3407,20 +3379,20 @@
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>IF((C8=""),"",VLOOKUP(C8,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="12" t="b">
         <v>0</v>
@@ -3432,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="6">
         <v>7</v>
@@ -3446,20 +3418,20 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="str">
         <f>IF((C9=""),"",VLOOKUP(C9,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="12" t="b">
         <v>0</v>
@@ -3471,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="6">
         <v>8</v>
@@ -3485,20 +3457,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>IF((C10=""),"",VLOOKUP(C10,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" s="12" t="b">
         <v>0</v>
@@ -3510,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" s="6">
         <v>9</v>
@@ -3524,20 +3496,20 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>IF((C11=""),"",VLOOKUP(C11,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" s="12" t="b">
         <v>0</v>
@@ -3549,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11" s="6">
         <v>10</v>
@@ -3563,20 +3535,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>IF((C12=""),"",VLOOKUP(C12,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" s="12" t="b">
         <v>0</v>
@@ -3588,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M12" s="6">
         <v>11</v>
@@ -3602,20 +3574,20 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8" t="str">
         <f>IF((C13=""),"",VLOOKUP(C13,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="12" t="b">
         <v>0</v>
@@ -3627,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="6">
         <v>12</v>
@@ -3641,20 +3613,20 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="8" t="str">
         <f>IF((C14=""),"",VLOOKUP(C14,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="12" t="b">
         <v>0</v>
@@ -3666,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M14" s="6">
         <v>13</v>
@@ -3680,20 +3652,20 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" s="8" t="str">
         <f>IF((C15=""),"",VLOOKUP(C15,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="12" t="b">
         <v>0</v>
@@ -3705,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" s="6">
         <v>14</v>
@@ -3722,20 +3694,20 @@
         <v>2</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8" t="str">
         <f>IF((C16=""),"",VLOOKUP(C16,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="12" t="b">
         <v>0</v>
@@ -3747,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M16" s="6">
         <v>15</v>
@@ -3764,20 +3736,20 @@
         <v>2</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" s="8" t="str">
         <f>IF((C17=""),"",VLOOKUP(C17,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="12" t="b">
         <v>0</v>
@@ -3789,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17" s="6">
         <v>16</v>
@@ -3803,20 +3775,20 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="8" t="str">
         <f>IF((C18=""),"",VLOOKUP(C18,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" s="12" t="b">
         <v>1</v>
@@ -3828,7 +3800,7 @@
         <v>30</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="6">
         <v>17</v>
@@ -3845,20 +3817,20 @@
         <v>2</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="8" t="str">
         <f>IF((C19=""),"",VLOOKUP(C19,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" s="12" t="b">
         <v>0</v>
@@ -3870,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="6">
         <v>18</v>
@@ -3887,20 +3859,20 @@
         <v>2</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="8" t="str">
         <f>IF((C20=""),"",VLOOKUP(C20,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" s="12" t="b">
         <v>0</v>
@@ -3912,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M20" s="6">
         <v>19</v>
@@ -3929,20 +3901,20 @@
         <v>2</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="8" t="str">
         <f>IF((C21=""),"",VLOOKUP(C21,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="12" t="b">
         <v>0</v>
@@ -3954,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M21" s="6">
         <v>20</v>
@@ -3971,32 +3943,32 @@
         <v>2</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="8" t="str">
         <f>IF((C22=""),"",VLOOKUP(C22,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" s="12" t="b">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" s="6">
         <v>21</v>
@@ -4010,20 +3982,20 @@
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="8" t="str">
         <f>IF((C23=""),"",VLOOKUP(C23,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" s="12" t="b">
         <v>0</v>
@@ -4035,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="6">
         <v>22</v>
@@ -4049,20 +4021,20 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E24" s="8" t="str">
         <f>IF((C24=""),"",VLOOKUP(C24,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" s="12" t="b">
         <v>0</v>
@@ -4074,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" s="6">
         <v>23</v>
@@ -4088,20 +4060,20 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="8" t="str">
         <f>IF((C25=""),"",VLOOKUP(C25,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" s="12" t="b">
         <v>0</v>
@@ -4113,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M25" s="6">
         <v>24</v>
@@ -4130,20 +4102,20 @@
         <v>2</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8" t="str">
         <f>IF((C26=""),"",VLOOKUP(C26,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" s="12" t="b">
         <v>0</v>
@@ -4155,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M26" s="6">
         <v>25</v>
@@ -4172,20 +4144,20 @@
         <v>2</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8" t="str">
         <f>IF((C27=""),"",VLOOKUP(C27,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" s="12" t="b">
         <v>0</v>
@@ -4197,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" s="6">
         <v>26</v>
@@ -4211,20 +4183,20 @@
         <v>2</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E28" s="8" t="str">
         <f>IF((C28=""),"",VLOOKUP(C28,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" s="12" t="b">
         <v>0</v>
@@ -4236,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M28" s="6">
         <v>27</v>
@@ -4253,20 +4225,20 @@
         <v>2</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="8" t="str">
         <f>IF((C29=""),"",VLOOKUP(C29,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" s="12" t="b">
         <v>0</v>
@@ -4278,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M29" s="6">
         <v>28</v>
@@ -4295,20 +4267,20 @@
         <v>2</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="8" t="str">
         <f>IF((C30=""),"",VLOOKUP(C30,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="12" t="b">
         <v>0</v>
@@ -4320,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M30" s="6">
         <v>29</v>
@@ -4334,20 +4306,20 @@
         <v>2</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E31" s="8" t="str">
         <f>IF((C31=""),"",VLOOKUP(C31,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" s="12" t="b">
         <v>0</v>
@@ -4359,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M31" s="6">
         <v>30</v>
@@ -4376,20 +4348,20 @@
         <v>2</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E32" s="8" t="str">
         <f>IF((C32=""),"",VLOOKUP(C32,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" s="12" t="b">
         <v>0</v>
@@ -4401,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M32" s="6">
         <v>31</v>
@@ -4418,20 +4390,20 @@
         <v>2</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E33" s="8" t="str">
         <f>IF((C33=""),"",VLOOKUP(C33,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" s="12" t="b">
         <v>0</v>
@@ -4443,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M33" s="6">
         <v>32</v>
@@ -4457,20 +4429,20 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34" s="8" t="str">
         <f>IF((C34=""),"",VLOOKUP(C34,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" s="12" t="b">
         <v>0</v>
@@ -4482,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M34" s="6">
         <v>33</v>
@@ -4496,20 +4468,20 @@
         <v>2</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E35" s="8" t="str">
         <f>IF((C35=""),"",VLOOKUP(C35,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I35" s="12" t="b">
         <v>0</v>
@@ -4521,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M35" s="6">
         <v>34</v>
@@ -4538,20 +4510,20 @@
         <v>2</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E36" s="8" t="str">
         <f>IF((C36=""),"",VLOOKUP(C36,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" s="12" t="b">
         <v>0</v>
@@ -4563,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M36" s="6">
         <v>35</v>
@@ -4580,20 +4552,20 @@
         <v>2</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" s="8" t="str">
         <f>IF((C37=""),"",VLOOKUP(C37,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Procedures</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" s="12" t="b">
         <v>0</v>
@@ -4605,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M37" s="6">
         <v>36</v>
@@ -4619,20 +4591,20 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E38" s="8" t="str">
         <f>IF((C38=""),"",VLOOKUP(C38,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" s="12" t="b">
         <v>0</v>
@@ -4644,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M38" s="6">
         <v>37</v>
@@ -4658,20 +4630,20 @@
         <v>3</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E39" s="8" t="str">
         <f>IF((C39=""),"",VLOOKUP(C39,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" s="12" t="b">
         <v>0</v>
@@ -4683,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M39" s="6">
         <v>38</v>
@@ -4697,20 +4669,20 @@
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E40" s="8" t="str">
         <f>IF((C40=""),"",VLOOKUP(C40,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" s="12" t="b">
         <v>0</v>
@@ -4722,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M40" s="6">
         <v>39</v>
@@ -4736,20 +4708,20 @@
         <v>3</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E41" s="8" t="str">
         <f>IF((C41=""),"",VLOOKUP(C41,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" s="12" t="b">
         <v>0</v>
@@ -4761,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M41" s="6">
         <v>40</v>
@@ -4775,20 +4747,20 @@
         <v>3</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E42" s="8" t="str">
         <f>IF((C42=""),"",VLOOKUP(C42,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" s="12" t="b">
         <v>0</v>
@@ -4800,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M42" s="6">
         <v>41</v>
@@ -4814,20 +4786,20 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E43" s="8" t="str">
         <f>IF((C43=""),"",VLOOKUP(C43,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" s="12" t="b">
         <v>0</v>
@@ -4839,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M43" s="6">
         <v>42</v>
@@ -4853,20 +4825,20 @@
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="8" t="str">
         <f>IF((C44=""),"",VLOOKUP(C44,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" s="12" t="b">
         <v>0</v>
@@ -4878,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M44" s="6">
         <v>43</v>
@@ -4895,20 +4867,20 @@
         <v>3</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45" s="8" t="str">
         <f>IF((C45=""),"",VLOOKUP(C45,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" s="12" t="b">
         <v>0</v>
@@ -4920,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M45" s="6">
         <v>44</v>
@@ -4937,20 +4909,20 @@
         <v>3</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E46" s="8" t="str">
         <f>IF((C46=""),"",VLOOKUP(C46,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" s="12" t="b">
         <v>0</v>
@@ -4962,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M46" s="6">
         <v>45</v>
@@ -4976,20 +4948,20 @@
         <v>3</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E47" s="8" t="str">
         <f>IF((C47=""),"",VLOOKUP(C47,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" s="12" t="b">
         <v>0</v>
@@ -5001,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M47" s="6">
         <v>46</v>
@@ -5018,20 +4990,20 @@
         <v>3</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E48" s="8" t="str">
         <f>IF((C48=""),"",VLOOKUP(C48,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" s="12" t="b">
         <v>0</v>
@@ -5043,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M48" s="6">
         <v>47</v>
@@ -5060,20 +5032,20 @@
         <v>3</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="8" t="str">
         <f>IF((C49=""),"",VLOOKUP(C49,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" s="12" t="b">
         <v>0</v>
@@ -5085,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M49" s="6">
         <v>48</v>
@@ -5099,20 +5071,20 @@
         <v>3</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="8" t="str">
         <f>IF((C50=""),"",VLOOKUP(C50,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" s="12" t="b">
         <v>0</v>
@@ -5124,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M50" s="6">
         <v>49</v>
@@ -5141,20 +5113,20 @@
         <v>3</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51" s="8" t="str">
         <f>IF((C51=""),"",VLOOKUP(C51,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" s="12" t="b">
         <v>0</v>
@@ -5166,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M51" s="6">
         <v>50</v>
@@ -5183,20 +5155,20 @@
         <v>3</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E52" s="8" t="str">
         <f>IF((C52=""),"",VLOOKUP(C52,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" s="12" t="b">
         <v>0</v>
@@ -5208,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M52" s="6">
         <v>51</v>
@@ -5222,20 +5194,20 @@
         <v>3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" s="8" t="str">
         <f>IF((C53=""),"",VLOOKUP(C53,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" s="12" t="b">
         <v>0</v>
@@ -5247,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M53" s="6">
         <v>52</v>
@@ -5261,20 +5233,20 @@
         <v>3</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" s="8" t="str">
         <f>IF((C54=""),"",VLOOKUP(C54,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Development (Proponent Time)</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I54" s="12" t="b">
         <v>0</v>
@@ -5286,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M54" s="6">
         <v>53</v>
@@ -5300,20 +5272,20 @@
         <v>4</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E55" s="8" t="str">
         <f>IF((C55=""),"",VLOOKUP(C55,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I55" s="12" t="b">
         <v>0</v>
@@ -5325,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M55" s="6">
         <v>54</v>
@@ -5342,20 +5314,20 @@
         <v>4</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" s="8" t="str">
         <f>IF((C56=""),"",VLOOKUP(C56,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" s="12" t="b">
         <v>0</v>
@@ -5367,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M56" s="6">
         <v>55</v>
@@ -5384,20 +5356,20 @@
         <v>4</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E57" s="8" t="str">
         <f>IF((C57=""),"",VLOOKUP(C57,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" s="12" t="b">
         <v>0</v>
@@ -5409,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M57" s="6">
         <v>56</v>
@@ -5423,20 +5395,20 @@
         <v>4</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E58" s="8" t="str">
         <f>IF((C58=""),"",VLOOKUP(C58,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" s="12" t="b">
         <v>0</v>
@@ -5448,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M58" s="6">
         <v>57</v>
@@ -5462,20 +5434,20 @@
         <v>4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E59" s="8" t="str">
         <f>IF((C59=""),"",VLOOKUP(C59,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" s="12" t="b">
         <v>0</v>
@@ -5487,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M59" s="6">
         <v>58</v>
@@ -5504,20 +5476,20 @@
         <v>4</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E60" s="8" t="str">
         <f>IF((C60=""),"",VLOOKUP(C60,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" s="12" t="b">
         <v>0</v>
@@ -5529,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M60" s="6">
         <v>59</v>
@@ -5543,20 +5515,20 @@
         <v>4</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E61" s="8" t="str">
         <f>IF((C61=""),"",VLOOKUP(C61,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" s="12" t="b">
         <v>0</v>
@@ -5568,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M61" s="6">
         <v>60</v>
@@ -5582,20 +5554,20 @@
         <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E62" s="8" t="str">
         <f>IF((C62=""),"",VLOOKUP(C62,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" s="12" t="b">
         <v>0</v>
@@ -5607,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M62" s="6">
         <v>61</v>
@@ -5621,20 +5593,20 @@
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E63" s="8" t="str">
         <f>IF((C63=""),"",VLOOKUP(C63,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" s="12" t="b">
         <v>0</v>
@@ -5646,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M63" s="6">
         <v>62</v>
@@ -5663,20 +5635,20 @@
         <v>4</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E64" s="8" t="str">
         <f>IF((C64=""),"",VLOOKUP(C64,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" s="12" t="b">
         <v>0</v>
@@ -5688,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M64" s="6">
         <v>63</v>
@@ -5705,20 +5677,20 @@
         <v>4</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E65" s="8" t="str">
         <f>IF((C65=""),"",VLOOKUP(C65,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" s="12" t="b">
         <v>0</v>
@@ -5730,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M65" s="6">
         <v>64</v>
@@ -5744,20 +5716,20 @@
         <v>4</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="8" t="str">
         <f>IF((C66=""),"",VLOOKUP(C66,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" s="12" t="b">
         <v>0</v>
@@ -5769,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M66" s="6">
         <v>65</v>
@@ -5786,20 +5758,20 @@
         <v>4</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="8" t="str">
         <f>IF((C67=""),"",VLOOKUP(C67,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" s="12" t="b">
         <v>0</v>
@@ -5811,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M67" s="6">
         <v>66</v>
@@ -5828,20 +5800,20 @@
         <v>4</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="8" t="str">
         <f>IF((C68=""),"",VLOOKUP(C68,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" s="12" t="b">
         <v>0</v>
@@ -5853,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M68" s="6">
         <v>67</v>
@@ -5867,20 +5839,20 @@
         <v>4</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E69" s="8" t="str">
         <f>IF((C69=""),"",VLOOKUP(C69,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" s="12" t="b">
         <v>0</v>
@@ -5892,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M69" s="6">
         <v>68</v>
@@ -5909,20 +5881,20 @@
         <v>4</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="8" t="str">
         <f>IF((C70=""),"",VLOOKUP(C70,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" s="12" t="b">
         <v>0</v>
@@ -5934,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M70" s="6">
         <v>69</v>
@@ -5951,20 +5923,20 @@
         <v>4</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E71" s="8" t="str">
         <f>IF((C71=""),"",VLOOKUP(C71,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" s="12" t="b">
         <v>0</v>
@@ -5976,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M71" s="6">
         <v>70</v>
@@ -5990,20 +5962,20 @@
         <v>4</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E72" s="8" t="str">
         <f>IF((C72=""),"",VLOOKUP(C72,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" s="12" t="b">
         <v>0</v>
@@ -6015,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M72" s="6">
         <v>71</v>
@@ -6029,20 +6001,20 @@
         <v>4</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E73" s="8" t="str">
         <f>IF((C73=""),"",VLOOKUP(C73,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Submission</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I73" s="12" t="b">
         <v>0</v>
@@ -6054,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M73" s="6">
         <v>72</v>
@@ -6068,20 +6040,20 @@
         <v>5</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E74" s="8" t="str">
         <f>IF((C74=""),"",VLOOKUP(C74,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I74" s="12" t="b">
         <v>0</v>
@@ -6093,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M74" s="6">
         <v>73</v>
@@ -6107,20 +6079,20 @@
         <v>5</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E75" s="8" t="str">
         <f>IF((C75=""),"",VLOOKUP(C75,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" s="12" t="b">
         <v>0</v>
@@ -6132,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M75" s="6">
         <v>74</v>
@@ -6146,20 +6118,20 @@
         <v>5</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76" s="8" t="str">
         <f>IF((C76=""),"",VLOOKUP(C76,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" s="12" t="b">
         <v>0</v>
@@ -6171,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M76" s="6">
         <v>75</v>
@@ -6185,20 +6157,20 @@
         <v>5</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E77" s="8" t="str">
         <f>IF((C77=""),"",VLOOKUP(C77,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" s="12" t="b">
         <v>0</v>
@@ -6210,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M77" s="6">
         <v>76</v>
@@ -6224,20 +6196,20 @@
         <v>5</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E78" s="8" t="str">
         <f>IF((C78=""),"",VLOOKUP(C78,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" s="12" t="b">
         <v>0</v>
@@ -6249,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M78" s="6">
         <v>77</v>
@@ -6266,20 +6238,20 @@
         <v>5</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E79" s="8" t="str">
         <f>IF((C79=""),"",VLOOKUP(C79,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" s="12" t="b">
         <v>0</v>
@@ -6291,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M79" s="6">
         <v>78</v>
@@ -6308,20 +6280,20 @@
         <v>5</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E80" s="8" t="str">
         <f>IF((C80=""),"",VLOOKUP(C80,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" s="12" t="b">
         <v>0</v>
@@ -6333,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M80" s="6">
         <v>79</v>
@@ -6347,20 +6319,20 @@
         <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E81" s="8" t="str">
         <f>IF((C81=""),"",VLOOKUP(C81,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" s="12" t="b">
         <v>1</v>
@@ -6372,7 +6344,7 @@
         <v>30</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M81" s="6">
         <v>80</v>
@@ -6389,20 +6361,20 @@
         <v>5</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E82" s="8" t="str">
         <f>IF((C82=""),"",VLOOKUP(C82,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" s="12" t="b">
         <v>0</v>
@@ -6414,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M82" s="6">
         <v>81</v>
@@ -6431,20 +6403,20 @@
         <v>5</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E83" s="8" t="str">
         <f>IF((C83=""),"",VLOOKUP(C83,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" s="12" t="b">
         <v>0</v>
@@ -6456,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M83" s="6">
         <v>82</v>
@@ -6473,20 +6445,20 @@
         <v>5</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E84" s="8" t="str">
         <f>IF((C84=""),"",VLOOKUP(C84,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" s="12" t="b">
         <v>0</v>
@@ -6498,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M84" s="6">
         <v>83</v>
@@ -6515,32 +6487,32 @@
         <v>5</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E85" s="8" t="str">
         <f>IF((C85=""),"",VLOOKUP(C85,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" s="12" t="b">
         <v>0</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K85" s="6">
         <v>0</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M85" s="6">
         <v>84</v>
@@ -6554,20 +6526,20 @@
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E86" s="8" t="str">
         <f>IF((C86=""),"",VLOOKUP(C86,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" s="12" t="b">
         <v>0</v>
@@ -6579,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M86" s="6">
         <v>85</v>
@@ -6593,20 +6565,20 @@
         <v>5</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E87" s="8" t="str">
         <f>IF((C87=""),"",VLOOKUP(C87,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" s="12" t="b">
         <v>0</v>
@@ -6618,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M87" s="6">
         <v>86</v>
@@ -6632,20 +6604,20 @@
         <v>5</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E88" s="8" t="str">
         <f>IF((C88=""),"",VLOOKUP(C88,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" s="12" t="b">
         <v>0</v>
@@ -6657,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M88" s="6">
         <v>87</v>
@@ -6674,20 +6646,20 @@
         <v>5</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E89" s="8" t="str">
         <f>IF((C89=""),"",VLOOKUP(C89,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" s="12" t="b">
         <v>0</v>
@@ -6699,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M89" s="6">
         <v>88</v>
@@ -6716,20 +6688,20 @@
         <v>5</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E90" s="8" t="str">
         <f>IF((C90=""),"",VLOOKUP(C90,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" s="12" t="b">
         <v>0</v>
@@ -6741,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M90" s="6">
         <v>89</v>
@@ -6755,20 +6727,20 @@
         <v>5</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E91" s="8" t="str">
         <f>IF((C91=""),"",VLOOKUP(C91,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" s="12" t="b">
         <v>0</v>
@@ -6780,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M91" s="6">
         <v>90</v>
@@ -6797,20 +6769,20 @@
         <v>5</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E92" s="8" t="str">
         <f>IF((C92=""),"",VLOOKUP(C92,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" s="12" t="b">
         <v>0</v>
@@ -6822,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M92" s="6">
         <v>91</v>
@@ -6839,20 +6811,20 @@
         <v>5</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" s="8" t="str">
         <f>IF((C93=""),"",VLOOKUP(C93,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" s="12" t="b">
         <v>0</v>
@@ -6864,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M93" s="6">
         <v>92</v>
@@ -6878,20 +6850,20 @@
         <v>5</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E94" s="8" t="str">
         <f>IF((C94=""),"",VLOOKUP(C94,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" s="12" t="b">
         <v>0</v>
@@ -6903,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M94" s="6">
         <v>93</v>
@@ -6920,20 +6892,20 @@
         <v>5</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E95" s="8" t="str">
         <f>IF((C95=""),"",VLOOKUP(C95,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" s="12" t="b">
         <v>0</v>
@@ -6945,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M95" s="6">
         <v>94</v>
@@ -6962,20 +6934,20 @@
         <v>5</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96" s="8" t="str">
         <f>IF((C96=""),"",VLOOKUP(C96,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" s="12" t="b">
         <v>0</v>
@@ -6987,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M96" s="6">
         <v>95</v>
@@ -7001,20 +6973,20 @@
         <v>5</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E97" s="8" t="str">
         <f>IF((C97=""),"",VLOOKUP(C97,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" s="12" t="b">
         <v>0</v>
@@ -7026,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M97" s="6">
         <v>96</v>
@@ -7040,20 +7012,20 @@
         <v>5</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E98" s="8" t="str">
         <f>IF((C98=""),"",VLOOKUP(C98,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Simple)</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I98" s="12" t="b">
         <v>0</v>
@@ -7065,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M98" s="6">
         <v>97</v>
@@ -7079,20 +7051,20 @@
         <v>6</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E99" s="8" t="str">
         <f>IF((C99=""),"",VLOOKUP(C99,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I99" s="12" t="b">
         <v>0</v>
@@ -7104,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M99" s="6">
         <v>98</v>
@@ -7118,20 +7090,20 @@
         <v>6</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E100" s="8" t="str">
         <f>IF((C100=""),"",VLOOKUP(C100,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" s="12" t="b">
         <v>0</v>
@@ -7143,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M100" s="6">
         <v>99</v>
@@ -7157,20 +7129,20 @@
         <v>6</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E101" s="8" t="str">
         <f>IF((C101=""),"",VLOOKUP(C101,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" s="12" t="b">
         <v>0</v>
@@ -7182,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M101" s="6">
         <v>100</v>
@@ -7196,20 +7168,20 @@
         <v>6</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E102" s="8" t="str">
         <f>IF((C102=""),"",VLOOKUP(C102,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" s="12" t="b">
         <v>0</v>
@@ -7221,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M102" s="6">
         <v>101</v>
@@ -7235,20 +7207,20 @@
         <v>6</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E103" s="8" t="str">
         <f>IF((C103=""),"",VLOOKUP(C103,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" s="12" t="b">
         <v>0</v>
@@ -7260,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M103" s="6">
         <v>102</v>
@@ -7274,20 +7246,20 @@
         <v>6</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E104" s="8" t="str">
         <f>IF((C104=""),"",VLOOKUP(C104,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" s="12" t="b">
         <v>0</v>
@@ -7299,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M104" s="6">
         <v>103</v>
@@ -7316,20 +7288,20 @@
         <v>6</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E105" s="8" t="str">
         <f>IF((C105=""),"",VLOOKUP(C105,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" s="12" t="b">
         <v>0</v>
@@ -7341,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M105" s="6">
         <v>104</v>
@@ -7358,20 +7330,20 @@
         <v>6</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E106" s="8" t="str">
         <f>IF((C106=""),"",VLOOKUP(C106,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" s="12" t="b">
         <v>0</v>
@@ -7383,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M106" s="6">
         <v>105</v>
@@ -7397,20 +7369,20 @@
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E107" s="8" t="str">
         <f>IF((C107=""),"",VLOOKUP(C107,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" s="12" t="b">
         <v>1</v>
@@ -7422,7 +7394,7 @@
         <v>30</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M107" s="6">
         <v>106</v>
@@ -7439,20 +7411,20 @@
         <v>6</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E108" s="8" t="str">
         <f>IF((C108=""),"",VLOOKUP(C108,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" s="12" t="b">
         <v>0</v>
@@ -7464,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M108" s="6">
         <v>107</v>
@@ -7481,20 +7453,20 @@
         <v>6</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E109" s="8" t="str">
         <f>IF((C109=""),"",VLOOKUP(C109,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" s="12" t="b">
         <v>0</v>
@@ -7506,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M109" s="6">
         <v>108</v>
@@ -7523,20 +7495,20 @@
         <v>6</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E110" s="8" t="str">
         <f>IF((C110=""),"",VLOOKUP(C110,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" s="12" t="b">
         <v>0</v>
@@ -7548,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M110" s="6">
         <v>109</v>
@@ -7565,32 +7537,32 @@
         <v>6</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E111" s="8" t="str">
         <f>IF((C111=""),"",VLOOKUP(C111,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" s="12" t="b">
         <v>0</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K111" s="6">
         <v>0</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M111" s="6">
         <v>110</v>
@@ -7604,20 +7576,20 @@
         <v>6</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E112" s="8" t="str">
         <f>IF((C112=""),"",VLOOKUP(C112,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" s="12" t="b">
         <v>0</v>
@@ -7629,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M112" s="6">
         <v>111</v>
@@ -7643,20 +7615,20 @@
         <v>6</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E113" s="8" t="str">
         <f>IF((C113=""),"",VLOOKUP(C113,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" s="12" t="b">
         <v>0</v>
@@ -7668,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M113" s="6">
         <v>112</v>
@@ -7682,20 +7654,20 @@
         <v>6</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E114" s="8" t="str">
         <f>IF((C114=""),"",VLOOKUP(C114,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" s="12" t="b">
         <v>0</v>
@@ -7707,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M114" s="6">
         <v>113</v>
@@ -7724,20 +7696,20 @@
         <v>6</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E115" s="8" t="str">
         <f>IF((C115=""),"",VLOOKUP(C115,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" s="12" t="b">
         <v>0</v>
@@ -7749,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M115" s="6">
         <v>114</v>
@@ -7766,20 +7738,20 @@
         <v>6</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E116" s="8" t="str">
         <f>IF((C116=""),"",VLOOKUP(C116,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" s="12" t="b">
         <v>0</v>
@@ -7791,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M116" s="6">
         <v>115</v>
@@ -7805,20 +7777,20 @@
         <v>6</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E117" s="8" t="str">
         <f>IF((C117=""),"",VLOOKUP(C117,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" s="12" t="b">
         <v>0</v>
@@ -7830,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M117" s="6">
         <v>116</v>
@@ -7847,20 +7819,20 @@
         <v>6</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E118" s="8" t="str">
         <f>IF((C118=""),"",VLOOKUP(C118,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" s="12" t="b">
         <v>0</v>
@@ -7872,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M118" s="6">
         <v>117</v>
@@ -7889,20 +7861,20 @@
         <v>6</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E119" s="8" t="str">
         <f>IF((C119=""),"",VLOOKUP(C119,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" s="12" t="b">
         <v>0</v>
@@ -7914,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M119" s="6">
         <v>118</v>
@@ -7928,20 +7900,20 @@
         <v>6</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E120" s="8" t="str">
         <f>IF((C120=""),"",VLOOKUP(C120,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I120" s="12" t="b">
         <v>0</v>
@@ -7953,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M120" s="6">
         <v>119</v>
@@ -7970,20 +7942,20 @@
         <v>6</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E121" s="8" t="str">
         <f>IF((C121=""),"",VLOOKUP(C121,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I121" s="12" t="b">
         <v>0</v>
@@ -7995,7 +7967,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M121" s="6">
         <v>120</v>
@@ -8012,20 +7984,20 @@
         <v>6</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E122" s="8" t="str">
         <f>IF((C122=""),"",VLOOKUP(C122,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I122" s="12" t="b">
         <v>0</v>
@@ -8037,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M122" s="6">
         <v>121</v>
@@ -8051,20 +8023,20 @@
         <v>6</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E123" s="8" t="str">
         <f>IF((C123=""),"",VLOOKUP(C123,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I123" s="12" t="b">
         <v>0</v>
@@ -8076,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M123" s="6">
         <v>122</v>
@@ -8090,20 +8062,20 @@
         <v>6</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E124" s="8" t="str">
         <f>IF((C124=""),"",VLOOKUP(C124,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Typical)</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I124" s="12" t="b">
         <v>0</v>
@@ -8115,7 +8087,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M124" s="6">
         <v>123</v>
@@ -8129,20 +8101,20 @@
         <v>7</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E125" s="8" t="str">
         <f>IF((C125=""),"",VLOOKUP(C125,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I125" s="12" t="b">
         <v>0</v>
@@ -8154,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M125" s="6">
         <v>124</v>
@@ -8168,20 +8140,20 @@
         <v>7</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E126" s="8" t="str">
         <f>IF((C126=""),"",VLOOKUP(C126,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I126" s="12" t="b">
         <v>0</v>
@@ -8193,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M126" s="6">
         <v>125</v>
@@ -8207,20 +8179,20 @@
         <v>7</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E127" s="8" t="str">
         <f>IF((C127=""),"",VLOOKUP(C127,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I127" s="12" t="b">
         <v>0</v>
@@ -8232,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M127" s="6">
         <v>126</v>
@@ -8246,20 +8218,20 @@
         <v>7</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E128" s="8" t="str">
         <f>IF((C128=""),"",VLOOKUP(C128,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I128" s="12" t="b">
         <v>0</v>
@@ -8271,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M128" s="6">
         <v>127</v>
@@ -8285,20 +8257,20 @@
         <v>7</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E129" s="8" t="str">
         <f>IF((C129=""),"",VLOOKUP(C129,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I129" s="12" t="b">
         <v>0</v>
@@ -8310,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M129" s="6">
         <v>128</v>
@@ -8324,20 +8296,20 @@
         <v>7</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E130" s="8" t="str">
         <f>IF((C130=""),"",VLOOKUP(C130,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I130" s="12" t="b">
         <v>0</v>
@@ -8349,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M130" s="6">
         <v>129</v>
@@ -8366,20 +8338,20 @@
         <v>7</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E131" s="8" t="str">
         <f>IF((C131=""),"",VLOOKUP(C131,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I131" s="12" t="b">
         <v>0</v>
@@ -8391,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M131" s="6">
         <v>130</v>
@@ -8408,20 +8380,20 @@
         <v>7</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E132" s="8" t="str">
         <f>IF((C132=""),"",VLOOKUP(C132,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I132" s="12" t="b">
         <v>0</v>
@@ -8433,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M132" s="6">
         <v>131</v>
@@ -8447,20 +8419,20 @@
         <v>7</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E133" s="8" t="str">
         <f>IF((C133=""),"",VLOOKUP(C133,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I133" s="12" t="b">
         <v>1</v>
@@ -8472,7 +8444,7 @@
         <v>30</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M133" s="6">
         <v>132</v>
@@ -8489,20 +8461,20 @@
         <v>7</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E134" s="8" t="str">
         <f>IF((C134=""),"",VLOOKUP(C134,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I134" s="12" t="b">
         <v>0</v>
@@ -8514,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M134" s="6">
         <v>133</v>
@@ -8531,20 +8503,20 @@
         <v>7</v>
       </c>
       <c r="D135" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E135" s="8" t="str">
         <f>IF((C135=""),"",VLOOKUP(C135,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I135" s="12" t="b">
         <v>0</v>
@@ -8556,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M135" s="6">
         <v>134</v>
@@ -8573,20 +8545,20 @@
         <v>7</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E136" s="8" t="str">
         <f>IF((C136=""),"",VLOOKUP(C136,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I136" s="12" t="b">
         <v>0</v>
@@ -8598,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M136" s="6">
         <v>135</v>
@@ -8615,32 +8587,32 @@
         <v>7</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E137" s="8" t="str">
         <f>IF((C137=""),"",VLOOKUP(C137,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I137" s="12" t="b">
         <v>0</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K137" s="6">
         <v>0</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M137" s="6">
         <v>136</v>
@@ -8654,20 +8626,20 @@
         <v>7</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E138" s="8" t="str">
         <f>IF((C138=""),"",VLOOKUP(C138,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I138" s="12" t="b">
         <v>0</v>
@@ -8679,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M138" s="6">
         <v>137</v>
@@ -8693,20 +8665,20 @@
         <v>7</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E139" s="8" t="str">
         <f>IF((C139=""),"",VLOOKUP(C139,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I139" s="12" t="b">
         <v>0</v>
@@ -8718,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M139" s="6">
         <v>138</v>
@@ -8732,20 +8704,20 @@
         <v>7</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E140" s="8" t="str">
         <f>IF((C140=""),"",VLOOKUP(C140,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I140" s="12" t="b">
         <v>0</v>
@@ -8757,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M140" s="6">
         <v>139</v>
@@ -8774,20 +8746,20 @@
         <v>7</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E141" s="8" t="str">
         <f>IF((C141=""),"",VLOOKUP(C141,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I141" s="12" t="b">
         <v>0</v>
@@ -8799,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M141" s="6">
         <v>140</v>
@@ -8816,20 +8788,20 @@
         <v>7</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E142" s="8" t="str">
         <f>IF((C142=""),"",VLOOKUP(C142,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I142" s="12" t="b">
         <v>0</v>
@@ -8841,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M142" s="6">
         <v>141</v>
@@ -8855,20 +8827,20 @@
         <v>7</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E143" s="8" t="str">
         <f>IF((C143=""),"",VLOOKUP(C143,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I143" s="12" t="b">
         <v>0</v>
@@ -8880,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M143" s="6">
         <v>142</v>
@@ -8897,20 +8869,20 @@
         <v>7</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E144" s="8" t="str">
         <f>IF((C144=""),"",VLOOKUP(C144,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I144" s="12" t="b">
         <v>0</v>
@@ -8922,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M144" s="6">
         <v>143</v>
@@ -8939,20 +8911,20 @@
         <v>7</v>
       </c>
       <c r="D145" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E145" s="8" t="str">
         <f>IF((C145=""),"",VLOOKUP(C145,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I145" s="12" t="b">
         <v>0</v>
@@ -8964,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M145" s="6">
         <v>144</v>
@@ -8978,20 +8950,20 @@
         <v>7</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E146" s="8" t="str">
         <f>IF((C146=""),"",VLOOKUP(C146,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I146" s="12" t="b">
         <v>0</v>
@@ -9003,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M146" s="6">
         <v>145</v>
@@ -9020,20 +8992,20 @@
         <v>7</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E147" s="8" t="str">
         <f>IF((C147=""),"",VLOOKUP(C147,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I147" s="12" t="b">
         <v>0</v>
@@ -9045,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M147" s="6">
         <v>146</v>
@@ -9062,20 +9034,20 @@
         <v>7</v>
       </c>
       <c r="D148" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E148" s="8" t="str">
         <f>IF((C148=""),"",VLOOKUP(C148,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I148" s="12" t="b">
         <v>0</v>
@@ -9087,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M148" s="6">
         <v>147</v>
@@ -9101,20 +9073,20 @@
         <v>7</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E149" s="8" t="str">
         <f>IF((C149=""),"",VLOOKUP(C149,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I149" s="12" t="b">
         <v>0</v>
@@ -9126,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M149" s="6">
         <v>148</v>
@@ -9140,20 +9112,20 @@
         <v>7</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E150" s="8" t="str">
         <f>IF((C150=""),"",VLOOKUP(C150,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Review (Complex)</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I150" s="12" t="b">
         <v>0</v>
@@ -9165,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M150" s="6">
         <v>149</v>
@@ -9179,20 +9151,20 @@
         <v>8</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E151" s="8" t="str">
         <f>IF((C151=""),"",VLOOKUP(C151,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I151" s="12" t="b">
         <v>0</v>
@@ -9204,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M151" s="6">
         <v>150</v>
@@ -9218,20 +9190,20 @@
         <v>8</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E152" s="8" t="str">
         <f>IF((C152=""),"",VLOOKUP(C152,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I152" s="12" t="b">
         <v>0</v>
@@ -9243,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M152" s="6">
         <v>151</v>
@@ -9260,20 +9232,20 @@
         <v>8</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E153" s="8" t="str">
         <f>IF((C153=""),"",VLOOKUP(C153,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I153" s="12" t="b">
         <v>0</v>
@@ -9285,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M153" s="6">
         <v>152</v>
@@ -9299,20 +9271,20 @@
         <v>8</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E154" s="8" t="str">
         <f>IF((C154=""),"",VLOOKUP(C154,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I154" s="12" t="b">
         <v>0</v>
@@ -9324,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M154" s="6">
         <v>153</v>
@@ -9338,20 +9310,20 @@
         <v>8</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E155" s="8" t="str">
         <f>IF((C155=""),"",VLOOKUP(C155,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I155" s="12" t="b">
         <v>0</v>
@@ -9363,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M155" s="6">
         <v>154</v>
@@ -9380,20 +9352,20 @@
         <v>8</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E156" s="8" t="str">
         <f>IF((C156=""),"",VLOOKUP(C156,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I156" s="12" t="b">
         <v>0</v>
@@ -9405,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M156" s="6">
         <v>155</v>
@@ -9422,20 +9394,20 @@
         <v>8</v>
       </c>
       <c r="D157" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E157" s="8" t="str">
         <f>IF((C157=""),"",VLOOKUP(C157,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I157" s="12" t="b">
         <v>0</v>
@@ -9447,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M157" s="6">
         <v>156</v>
@@ -9461,20 +9433,20 @@
         <v>8</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E158" s="8" t="str">
         <f>IF((C158=""),"",VLOOKUP(C158,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I158" s="12" t="b">
         <v>0</v>
@@ -9486,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M158" s="6">
         <v>157</v>
@@ -9500,20 +9472,20 @@
         <v>8</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E159" s="8" t="str">
         <f>IF((C159=""),"",VLOOKUP(C159,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I159" s="12" t="b">
         <v>0</v>
@@ -9525,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M159" s="6">
         <v>158</v>
@@ -9542,20 +9514,20 @@
         <v>8</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E160" s="8" t="str">
         <f>IF((C160=""),"",VLOOKUP(C160,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I160" s="12" t="b">
         <v>0</v>
@@ -9567,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M160" s="6">
         <v>159</v>
@@ -9584,20 +9556,20 @@
         <v>8</v>
       </c>
       <c r="D161" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E161" s="8" t="str">
         <f>IF((C161=""),"",VLOOKUP(C161,Phases!$A$2:$B$9,2,FALSE))</f>
         <v>Amendment Application Decision</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I161" s="12" t="b">
         <v>0</v>
@@ -9609,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M161" s="6">
         <v>160</v>
@@ -9618,9 +9590,9 @@
   </sheetData>
   <autoFilter ref="E1:E161">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Amendment Procedures"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="Amendment Procedures"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -9664,7 +9636,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -9681,13 +9653,13 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>17</v>
@@ -9705,7 +9677,7 @@
         <v>Submission Withdrawn</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
@@ -9723,7 +9695,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -9741,7 +9713,7 @@
         <v>Amendment Request Terminated s.39(d)</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -9759,7 +9731,7 @@
         <v>Amendment Request Withdrawn</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="6">
         <v>4</v>
@@ -9777,7 +9749,7 @@
         <v>Amendment Procedures Posted</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" s="6">
         <v>5</v>
@@ -9795,7 +9767,7 @@
         <v>"Draft" Amendment Application Initial Review</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" s="6">
         <v>6</v>
@@ -9813,7 +9785,7 @@
         <v>"Draft" Amendment Application Initial Review</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E8" s="6">
         <v>7</v>
@@ -9831,7 +9803,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="6">
         <v>8</v>
@@ -9849,7 +9821,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E10" s="6">
         <v>9</v>
@@ -9867,7 +9839,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" s="6">
         <v>10</v>
@@ -9885,7 +9857,7 @@
         <v>Amendment Application Received</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -9903,7 +9875,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E13" s="6">
         <v>12</v>
@@ -9921,7 +9893,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E14" s="6">
         <v>13</v>
@@ -9939,7 +9911,7 @@
         <v>Delegation of Decision</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" s="6">
         <v>14</v>
@@ -9957,7 +9929,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E16" s="6">
         <v>15</v>
@@ -9975,7 +9947,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E17" s="6">
         <v>16</v>
@@ -9993,7 +9965,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18" s="6">
         <v>17</v>
@@ -10011,7 +9983,7 @@
         <v>Amendment Complexity/Fee Decision</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E19" s="6">
         <v>18</v>
@@ -10029,7 +10001,7 @@
         <v>Amendment Complexity/Fee Decision</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E20" s="6">
         <v>19</v>
@@ -10047,7 +10019,7 @@
         <v>Amendment Complexity/Fee Decision</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21" s="6">
         <v>20</v>
@@ -10065,7 +10037,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" s="6">
         <v>21</v>
@@ -10083,7 +10055,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" s="6">
         <v>22</v>
@@ -10101,7 +10073,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E24" s="6">
         <v>23</v>
@@ -10119,7 +10091,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" s="6">
         <v>24</v>
@@ -10137,7 +10109,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26" s="6">
         <v>25</v>
@@ -10155,7 +10127,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E27" s="6">
         <v>26</v>
@@ -10173,7 +10145,7 @@
         <v>Dispute Resolution Triggered</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="6">
         <v>27</v>
@@ -10191,7 +10163,7 @@
         <v>Amendment Terminated s.39(d)</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6">
         <v>28</v>
@@ -10209,7 +10181,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6">
         <v>29</v>
@@ -10227,7 +10199,7 @@
         <v>Amendment Withdrawn</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E31" s="6">
         <v>30</v>
@@ -10245,7 +10217,7 @@
         <v>Amendment Decision</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E32" s="6">
         <v>31</v>
@@ -10263,7 +10235,7 @@
         <v>Amendment Decision</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E33" s="6">
         <v>32</v>
@@ -10286,11 +10258,11 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90476190476191" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -10310,19 +10282,19 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -10340,13 +10312,13 @@
         <v>Holder withdraws Submission from the Amendment process</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -10364,13 +10336,13 @@
         <v>Holder withdraws Submission from the Amendment process</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="6">
         <v>2</v>
@@ -10388,13 +10360,13 @@
         <v>Holder withdraws Submission from the Amendment process</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G4" s="6">
         <v>3</v>
@@ -10412,13 +10384,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" s="6">
         <v>4</v>
@@ -10436,13 +10408,13 @@
         <v>Amendment Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" s="6">
         <v>5</v>
@@ -10460,13 +10432,13 @@
         <v>Amendment Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G7" s="6">
         <v>6</v>
@@ -10484,13 +10456,13 @@
         <v>Amendment Request is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G8" s="6">
         <v>7</v>
@@ -10508,13 +10480,13 @@
         <v>Holder withdraws Amendment Request from EA process</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" s="6">
         <v>8</v>
@@ -10532,13 +10504,13 @@
         <v>Holder withdraws Amendment Request from EA process</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G10" s="6">
         <v>9</v>
@@ -10556,13 +10528,13 @@
         <v>Holder withdraws Amendment Request from EA process</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G11" s="6">
         <v>10</v>
@@ -10580,13 +10552,13 @@
         <v>End of Amendment Procedures PHASE, start of Amendment Application Development (Proponent Time) PHASE</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G12" s="6">
         <v>11</v>
@@ -10604,13 +10576,13 @@
         <v>Initial Review of "Draft" Amendment Application is POSITIVE</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G13" s="6">
         <v>12</v>
@@ -10628,13 +10600,13 @@
         <v>Initial Review of "Draft" Amendment Application is NEGATIVE</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G14" s="6">
         <v>13</v>
@@ -10652,13 +10624,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G15" s="6">
         <v>15</v>
@@ -10676,13 +10648,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16" s="6">
         <v>16</v>
@@ -10700,13 +10672,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G17" s="6">
         <v>17</v>
@@ -10724,13 +10696,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G18" s="6">
         <v>18</v>
@@ -10748,13 +10720,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="6">
         <v>19</v>
@@ -10772,13 +10744,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G20" s="6">
         <v>20</v>
@@ -10796,13 +10768,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G21" s="6">
         <v>21</v>
@@ -10820,13 +10792,13 @@
         <v>Starts the "clock" for Amendment</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G22" s="6">
         <v>22</v>
@@ -10844,13 +10816,13 @@
         <v>ADM, EA Operations is delegated to make the final Amendment Decision</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G23" s="6">
         <v>23</v>
@@ -10868,13 +10840,13 @@
         <v>CEAO is delegated to make the final Amendment Decision</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G24" s="6">
         <v>24</v>
@@ -10892,13 +10864,13 @@
         <v>Minister is delegated to make the final Amendment Decision</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G25" s="6">
         <v>25</v>
@@ -10916,13 +10888,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G26" s="6">
         <v>26</v>
@@ -10940,13 +10912,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27" s="6">
         <v>27</v>
@@ -10964,13 +10936,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28" s="6">
         <v>28</v>
@@ -10988,13 +10960,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G29" s="6">
         <v>29</v>
@@ -11012,13 +10984,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30" s="6">
         <v>30</v>
@@ -11036,13 +11008,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G31" s="6">
         <v>31</v>
@@ -11060,13 +11032,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G32" s="6">
         <v>32</v>
@@ -11084,13 +11056,13 @@
         <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G33" s="6">
         <v>33</v>
@@ -11108,13 +11080,13 @@
         <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="6">
         <v>34</v>
@@ -11132,13 +11104,13 @@
         <v>Amendment is determined to be "Simple"</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G35" s="6">
         <v>35</v>
@@ -11156,13 +11128,13 @@
         <v>Amendment is determined to be "Typical"</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G36" s="6">
         <v>36</v>
@@ -11180,13 +11152,13 @@
         <v>Amendment is determined to be "Complex"</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G37" s="6">
         <v>37</v>
@@ -11204,13 +11176,13 @@
         <v>Amendment is determined to be "Complex"</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G38" s="6">
         <v>38</v>
@@ -11228,13 +11200,13 @@
         <v>Amendment is determined to be "Complex"</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G39" s="6">
         <v>39</v>
@@ -11252,13 +11224,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G40" s="6">
         <v>40</v>
@@ -11276,13 +11248,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G41" s="6">
         <v>41</v>
@@ -11300,13 +11272,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G42" s="6">
         <v>42</v>
@@ -11324,13 +11296,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G43" s="6">
         <v>43</v>
@@ -11348,13 +11320,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" s="6">
         <v>44</v>
@@ -11372,13 +11344,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G45" s="6">
         <v>45</v>
@@ -11396,13 +11368,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G46" s="6">
         <v>46</v>
@@ -11420,13 +11392,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G47" s="6">
         <v>47</v>
@@ -11444,13 +11416,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G48" s="6">
         <v>48</v>
@@ -11468,13 +11440,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G49" s="6">
         <v>49</v>
@@ -11492,13 +11464,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G50" s="6">
         <v>50</v>
@@ -11516,13 +11488,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G51" s="6">
         <v>51</v>
@@ -11540,13 +11512,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G52" s="6">
         <v>52</v>
@@ -11564,13 +11536,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G53" s="6">
         <v>53</v>
@@ -11588,13 +11560,13 @@
         <v>Dispute Resolution is started</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G54" s="6">
         <v>54</v>
@@ -11612,13 +11584,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G55" s="6">
         <v>55</v>
@@ -11636,13 +11608,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G56" s="6">
         <v>56</v>
@@ -11660,13 +11632,13 @@
         <v>Amendment is Terminated under s.39(d) of Act</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G57" s="6">
         <v>57</v>
@@ -11684,13 +11656,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G58" s="6">
         <v>58</v>
@@ -11708,13 +11680,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G59" s="6">
         <v>59</v>
@@ -11732,13 +11704,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G60" s="6">
         <v>60</v>
@@ -11756,13 +11728,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G61" s="6">
         <v>61</v>
@@ -11780,13 +11752,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G62" s="6">
         <v>62</v>
@@ -11804,13 +11776,13 @@
         <v>Holder withdraws Application from Amendment process</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G63" s="6">
         <v>63</v>
@@ -11828,13 +11800,13 @@
         <v>Decision Maker Amends the EAC/Exemption Order</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G64" s="6">
         <v>64</v>
@@ -11852,13 +11824,13 @@
         <v>Decision Maker Refuses to Amend the EAC/Exemption Order</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G65" s="6">
         <v>65</v>
@@ -11923,7 +11895,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
@@ -11932,27 +11904,27 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -11997,7 +11969,7 @@
     </row>
     <row r="3" spans="2:19">
       <c r="B3" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -12006,22 +11978,22 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="3" t="b">
         <v>1</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S3" s="3" t="b">
         <v>1</v>
@@ -12029,31 +12001,31 @@
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" s="3" t="b">
         <v>0</v>
@@ -12061,362 +12033,362 @@
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O13" s="5"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="O14" s="5"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="8:9">
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="H21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="8:9">
       <c r="H22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="8:9">
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="8:9">
       <c r="H24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="H27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="8:9">
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="8:9">
       <c r="H29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="8:9">
       <c r="H30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="H33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="8:9">
       <c r="H34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="8:9">
       <c r="H35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="8:9">
       <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="8:9">
       <c r="H39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
